--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_branch_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_branch_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.16851747335071E-14</v>
+        <v>2.084258736675349E-14</v>
       </c>
       <c r="O2">
-        <v>1.823722007952057E-14</v>
+        <v>2.605318801350703E-14</v>
       </c>
       <c r="P2">
-        <v>-2.084263190636111E-14</v>
+        <v>-5.210651062130489E-14</v>
       </c>
       <c r="Q2">
-        <v>3.126388105013032E-14</v>
+        <v>-2.60532342084431E-14</v>
       </c>
       <c r="R2">
-        <v>-5.210174731488612E-15</v>
+        <v>-7.815495821209024E-15</v>
       </c>
       <c r="S2">
-        <v>1.042176646282785E-14</v>
+        <v>3.647499833209269E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688885E-15</v>
+        <v>-5.210646841692621E-15</v>
       </c>
       <c r="U2">
-        <v>5.763387045926293E-09</v>
+        <v>5.763400072542888E-09</v>
       </c>
       <c r="V2">
-        <v>-5.76336620750188E-09</v>
+        <v>-5.763376628795075E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688765E-15</v>
+        <v>5.009586257546098E-27</v>
       </c>
       <c r="X2">
-        <v>-5.763381834793552E-09</v>
+        <v>-5.763392256086735E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763371418634612E-09</v>
+        <v>5.763376629280974E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808771</v>
+        <v>1.100000023808819</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057415</v>
+        <v>0.5500000117056935</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030129</v>
+        <v>0.550000012102966</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AJ2">
-        <v>0.550000011659372</v>
+        <v>0.5500000116593246</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493814</v>
+        <v>0.5500000121493357</v>
       </c>
       <c r="AL2">
-        <v>6.741500448286912E-13</v>
+        <v>-1.099066227208609E-11</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995335</v>
       </c>
       <c r="AN2">
-        <v>179.99999999955</v>
+        <v>179.9999999995733</v>
       </c>
       <c r="AO2">
-        <v>6.726196540544584E-13</v>
+        <v>-1.101698727181823E-11</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952993</v>
+        <v>-179.9999999952762</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952927</v>
+        <v>179.9999999953161</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.04212936833768E-14</v>
+        <v>5.210646841688619E-15</v>
       </c>
       <c r="O3">
-        <v>-1.302641214596672E-14</v>
+        <v>5.21085256928688E-15</v>
       </c>
       <c r="P3">
-        <v>-1.042108851324361E-14</v>
+        <v>2.043905555395302E-19</v>
       </c>
       <c r="Q3">
-        <v>6.117001122667862E-29</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.563178314738587E-14</v>
+        <v>2.605165272592511E-15</v>
       </c>
       <c r="S3">
-        <v>-1.575916029743261E-19</v>
+        <v>-5.210803652302393E-15</v>
       </c>
       <c r="T3">
-        <v>-1.220959485239071E-28</v>
+        <v>-1.002396727065819E-27</v>
       </c>
       <c r="U3">
-        <v>-1.92112901509281E-09</v>
+        <v>-1.921136831062902E-09</v>
       </c>
       <c r="V3">
-        <v>1.921129016912371E-09</v>
+        <v>1.921129016912211E-09</v>
       </c>
       <c r="W3">
-        <v>-5.210646841688398E-15</v>
+        <v>-0</v>
       </c>
       <c r="X3">
-        <v>1.921144647087316E-09</v>
+        <v>1.92114464708715E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921123806211538E-09</v>
+        <v>-1.921129016858221E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439155</v>
+        <v>0.5500000116438684</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648378</v>
+        <v>0.5500000121647923</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AJ3">
-        <v>0.550000011659372</v>
+        <v>0.5500000116593246</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493814</v>
+        <v>0.5500000121493357</v>
       </c>
       <c r="AL3">
-        <v>6.712777471404469E-13</v>
+        <v>-1.102225953965895E-11</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938802</v>
+        <v>-179.999999993857</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938736</v>
+        <v>179.9999999938969</v>
       </c>
       <c r="AO3">
-        <v>6.726196540544584E-13</v>
+        <v>-1.101698727181823E-11</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952993</v>
+        <v>-179.9999999952762</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952927</v>
+        <v>179.9999999953161</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841688398E-15</v>
+        <v>-1.042129368337724E-14</v>
       </c>
       <c r="O4">
-        <v>-1.30264121474663E-14</v>
+        <v>-5.210441111045268E-15</v>
       </c>
       <c r="P4">
-        <v>1.042149886187919E-14</v>
+        <v>1.042149807775774E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688459E-15</v>
+        <v>1.042129368337624E-14</v>
       </c>
       <c r="R4">
-        <v>2.605307682697385E-14</v>
+        <v>1.302645895304168E-14</v>
       </c>
       <c r="S4">
-        <v>-1.04214512796219E-14</v>
+        <v>-2.60533910274879E-14</v>
       </c>
       <c r="T4">
-        <v>-6.12688789536558E-29</v>
+        <v>2.004653525271679E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921118593799132E-09</v>
+        <v>-1.921126409769225E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618681E-09</v>
+        <v>1.921118595618522E-09</v>
       </c>
       <c r="W4">
-        <v>5.210646841688337E-15</v>
+        <v>-5.210646841690623E-15</v>
       </c>
       <c r="X4">
-        <v>1.921134225793639E-09</v>
+        <v>1.921123804499793E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921123806211537E-09</v>
+        <v>-1.921118595564531E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439157</v>
+        <v>0.5500000116438684</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648378</v>
+        <v>0.5500000121647923</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AJ4">
-        <v>0.550000011659372</v>
+        <v>0.5500000116593246</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493814</v>
+        <v>0.5500000121493357</v>
       </c>
       <c r="AL4">
-        <v>6.737067942230307E-13</v>
+        <v>-1.102149021740864E-11</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938802</v>
+        <v>-179.999999993857</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938736</v>
+        <v>179.9999999938969</v>
       </c>
       <c r="AO4">
-        <v>6.726196540544584E-13</v>
+        <v>-1.101698727181823E-11</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952993</v>
+        <v>-179.9999999952762</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952927</v>
+        <v>179.9999999953161</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.168517473363028E-14</v>
+        <v>1.038410410261757E-27</v>
       </c>
       <c r="O2">
-        <v>-7.307747624441263E-10</v>
+        <v>-7.307704556108518E-10</v>
       </c>
       <c r="P2">
-        <v>-2.03930027842081E-09</v>
+        <v>-2.039329618878091E-09</v>
       </c>
       <c r="Q2">
-        <v>2.605323420851897E-14</v>
+        <v>-1.041050797446072E-27</v>
       </c>
       <c r="R2">
-        <v>7.307849564943994E-10</v>
+        <v>7.307820852725739E-10</v>
       </c>
       <c r="S2">
-        <v>2.03931033291405E-09</v>
+        <v>2.039329619167107E-09</v>
       </c>
       <c r="T2">
-        <v>-5.210646841704256E-15</v>
+        <v>1.042129368340787E-14</v>
       </c>
       <c r="U2">
-        <v>5.822492602639952E-09</v>
+        <v>5.822513831151908E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556041547260569E-09</v>
+        <v>-3.556054067927644E-09</v>
       </c>
       <c r="W2">
-        <v>2.888894627934586E-28</v>
+        <v>-1.042129368340787E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822493196933913E-09</v>
+        <v>-5.822507349275182E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556042369742804E-09</v>
+        <v>3.556054068255573E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812021</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635675</v>
+        <v>0.6816683458635701</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780303</v>
+        <v>0.4761907155779578</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299518</v>
+        <v>0.6816683458299548</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277764</v>
+        <v>0.4761907156277047</v>
       </c>
       <c r="AL2">
-        <v>6.368679979483132E-13</v>
+        <v>-5.709131295778685E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584169</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654782</v>
+        <v>158.1097491654905</v>
       </c>
       <c r="AO2">
-        <v>6.35320238224161E-13</v>
+        <v>-5.723648019569179E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552182</v>
       </c>
       <c r="AQ2">
-        <v>158.109749164254</v>
+        <v>158.1097491642665</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.042129368340747E-14</v>
+        <v>-5.210646841703412E-15</v>
       </c>
       <c r="O3">
-        <v>2.435907947806464E-10</v>
+        <v>2.435951016153397E-10</v>
       </c>
       <c r="P3">
-        <v>6.797706967768255E-10</v>
+        <v>6.797648286847928E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405251115E-14</v>
+        <v>-5.205253987230359E-28</v>
       </c>
       <c r="R3">
-        <v>-2.435806009872798E-10</v>
+        <v>-2.435834722105276E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606425404856E-10</v>
+        <v>-6.797698369195511E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212936834077E-14</v>
+        <v>5.210646841704452E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940844459082577E-09</v>
+        <v>-1.940823230570475E-09</v>
       </c>
       <c r="V3">
-        <v>1.185365048335561E-09</v>
+        <v>1.185362544202094E-09</v>
       </c>
       <c r="W3">
-        <v>1.042129368340742E-14</v>
+        <v>-5.210646841703933E-15</v>
       </c>
       <c r="X3">
-        <v>1.940843864497126E-09</v>
+        <v>1.940829712155713E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185364226144807E-09</v>
+        <v>-1.185350807982313E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187468</v>
+        <v>0.6816683458187497</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443587</v>
+        <v>0.4761907156442869</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299518</v>
+        <v>0.6816683458299548</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277764</v>
+        <v>0.4761907156277047</v>
       </c>
       <c r="AL3">
-        <v>6.340388323261596E-13</v>
+        <v>-5.724977276288884E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254152</v>
       </c>
       <c r="AN3">
-        <v>158.109749163846</v>
+        <v>158.1097491638585</v>
       </c>
       <c r="AO3">
-        <v>6.35320238224161E-13</v>
+        <v>-5.723648019569179E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552182</v>
       </c>
       <c r="AQ3">
-        <v>158.109749164254</v>
+        <v>158.1097491642665</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052511144E-14</v>
+        <v>-1.042129368340786E-14</v>
       </c>
       <c r="O4">
-        <v>2.435749604601503E-10</v>
+        <v>2.43582631253081E-10</v>
       </c>
       <c r="P4">
-        <v>6.797706967768257E-10</v>
+        <v>6.797698369516639E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841703736E-15</v>
+        <v>5.210646841703933E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435647666667841E-10</v>
+        <v>-2.43571001848269E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797690147655938E-10</v>
+        <v>-6.797698369195511E-10</v>
       </c>
       <c r="T4">
-        <v>5.210646841703621E-15</v>
+        <v>1.041376735017549E-27</v>
       </c>
       <c r="U4">
-        <v>-1.940835352678556E-09</v>
+        <v>-1.940826594528713E-09</v>
       </c>
       <c r="V4">
-        <v>1.185365048335561E-09</v>
+        <v>1.185350808018749E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841703852E-15</v>
+        <v>-5.205253987230359E-28</v>
       </c>
       <c r="X4">
-        <v>1.940834758093104E-09</v>
+        <v>1.94083307611395E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185360862186571E-09</v>
+        <v>-1.185350807982313E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187468</v>
+        <v>0.6816683458187498</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443587</v>
+        <v>0.4761907156442869</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299518</v>
+        <v>0.6816683458299548</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277764</v>
+        <v>0.4761907156277047</v>
       </c>
       <c r="AL4">
-        <v>6.367193413991676E-13</v>
+        <v>-5.725440008913087E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254152</v>
       </c>
       <c r="AN4">
-        <v>158.109749163846</v>
+        <v>158.1097491638585</v>
       </c>
       <c r="AO4">
-        <v>6.35320238224161E-13</v>
+        <v>-5.723648019569179E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552182</v>
       </c>
       <c r="AQ4">
-        <v>158.109749164254</v>
+        <v>158.1097491642665</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.168517473363028E-14</v>
+        <v>1.038410410261757E-27</v>
       </c>
       <c r="O2">
-        <v>-7.307747624441263E-10</v>
+        <v>-7.307704556108518E-10</v>
       </c>
       <c r="P2">
-        <v>-2.03930027842081E-09</v>
+        <v>-2.039329618878091E-09</v>
       </c>
       <c r="Q2">
-        <v>2.605323420851897E-14</v>
+        <v>-1.041050797446072E-27</v>
       </c>
       <c r="R2">
-        <v>7.307849564943994E-10</v>
+        <v>7.307820852725739E-10</v>
       </c>
       <c r="S2">
-        <v>2.03931033291405E-09</v>
+        <v>2.039329619167107E-09</v>
       </c>
       <c r="T2">
-        <v>-5.210646841704256E-15</v>
+        <v>1.042129368340787E-14</v>
       </c>
       <c r="U2">
-        <v>5.822492602639952E-09</v>
+        <v>5.822513831151908E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556041547260569E-09</v>
+        <v>-3.556054067927644E-09</v>
       </c>
       <c r="W2">
-        <v>2.888894627934586E-28</v>
+        <v>-1.042129368340787E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822493196933913E-09</v>
+        <v>-5.822507349275182E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556042369742804E-09</v>
+        <v>3.556054068255573E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812021</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635675</v>
+        <v>0.6816683458635701</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780303</v>
+        <v>0.4761907155779578</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299518</v>
+        <v>0.6816683458299548</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277764</v>
+        <v>0.4761907156277047</v>
       </c>
       <c r="AL2">
-        <v>6.368679979483132E-13</v>
+        <v>-5.709131295778685E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584169</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654782</v>
+        <v>158.1097491654905</v>
       </c>
       <c r="AO2">
-        <v>6.35320238224161E-13</v>
+        <v>-5.723648019569179E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552182</v>
       </c>
       <c r="AQ2">
-        <v>158.109749164254</v>
+        <v>158.1097491642665</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.042129368340747E-14</v>
+        <v>-5.210646841703412E-15</v>
       </c>
       <c r="O3">
-        <v>2.435907947806464E-10</v>
+        <v>2.435951016153397E-10</v>
       </c>
       <c r="P3">
-        <v>6.797706967768255E-10</v>
+        <v>6.797648286847928E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405251115E-14</v>
+        <v>-5.205253987230359E-28</v>
       </c>
       <c r="R3">
-        <v>-2.435806009872798E-10</v>
+        <v>-2.435834722105276E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606425404856E-10</v>
+        <v>-6.797698369195511E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212936834077E-14</v>
+        <v>5.210646841704452E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940844459082577E-09</v>
+        <v>-1.940823230570475E-09</v>
       </c>
       <c r="V3">
-        <v>1.185365048335561E-09</v>
+        <v>1.185362544202094E-09</v>
       </c>
       <c r="W3">
-        <v>1.042129368340742E-14</v>
+        <v>-5.210646841703933E-15</v>
       </c>
       <c r="X3">
-        <v>1.940843864497126E-09</v>
+        <v>1.940829712155713E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185364226144807E-09</v>
+        <v>-1.185350807982313E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187468</v>
+        <v>0.6816683458187497</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443587</v>
+        <v>0.4761907156442869</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299518</v>
+        <v>0.6816683458299548</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277764</v>
+        <v>0.4761907156277047</v>
       </c>
       <c r="AL3">
-        <v>6.340388323261596E-13</v>
+        <v>-5.724977276288884E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254152</v>
       </c>
       <c r="AN3">
-        <v>158.109749163846</v>
+        <v>158.1097491638585</v>
       </c>
       <c r="AO3">
-        <v>6.35320238224161E-13</v>
+        <v>-5.723648019569179E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552182</v>
       </c>
       <c r="AQ3">
-        <v>158.109749164254</v>
+        <v>158.1097491642665</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052511144E-14</v>
+        <v>-1.042129368340786E-14</v>
       </c>
       <c r="O4">
-        <v>2.435749604601503E-10</v>
+        <v>2.43582631253081E-10</v>
       </c>
       <c r="P4">
-        <v>6.797706967768257E-10</v>
+        <v>6.797698369516639E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841703736E-15</v>
+        <v>5.210646841703933E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435647666667841E-10</v>
+        <v>-2.43571001848269E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797690147655938E-10</v>
+        <v>-6.797698369195511E-10</v>
       </c>
       <c r="T4">
-        <v>5.210646841703621E-15</v>
+        <v>1.041376735017549E-27</v>
       </c>
       <c r="U4">
-        <v>-1.940835352678556E-09</v>
+        <v>-1.940826594528713E-09</v>
       </c>
       <c r="V4">
-        <v>1.185365048335561E-09</v>
+        <v>1.185350808018749E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841703852E-15</v>
+        <v>-5.205253987230359E-28</v>
       </c>
       <c r="X4">
-        <v>1.940834758093104E-09</v>
+        <v>1.94083307611395E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185360862186571E-09</v>
+        <v>-1.185350807982313E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187468</v>
+        <v>0.6816683458187498</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443587</v>
+        <v>0.4761907156442869</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812022</v>
+        <v>1.100000023812051</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299518</v>
+        <v>0.6816683458299548</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277764</v>
+        <v>0.4761907156277047</v>
       </c>
       <c r="AL4">
-        <v>6.367193413991676E-13</v>
+        <v>-5.725440008913087E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254152</v>
       </c>
       <c r="AN4">
-        <v>158.109749163846</v>
+        <v>158.1097491638585</v>
       </c>
       <c r="AO4">
-        <v>6.35320238224161E-13</v>
+        <v>-5.723648019569179E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552182</v>
       </c>
       <c r="AQ4">
-        <v>158.109749164254</v>
+        <v>158.1097491642665</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.368475785867837E-14</v>
+        <v>-9.47390314347306E-15</v>
       </c>
       <c r="O2">
-        <v>-4.737053823277332E-15</v>
+        <v>-1.65794334383416E-14</v>
       </c>
       <c r="P2">
-        <v>9.473800206004672E-15</v>
+        <v>4.736849310573318E-15</v>
       </c>
       <c r="Q2">
-        <v>2.131628207281046E-14</v>
+        <v>9.473903143472798E-15</v>
       </c>
       <c r="R2">
-        <v>8.290447026104383E-15</v>
+        <v>1.184316138725815E-14</v>
       </c>
       <c r="S2">
-        <v>-7.104644880078303E-15</v>
+        <v>-4.736169771859495E-15</v>
       </c>
       <c r="T2">
-        <v>-4.736951571736128E-15</v>
+        <v>-2.368475785867899E-14</v>
       </c>
       <c r="U2">
-        <v>4.763118490472597E-09</v>
+        <v>4.763092437238555E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763127967866471E-09</v>
+        <v>-4.763123230914485E-09</v>
       </c>
       <c r="W2">
-        <v>9.473903143471798E-15</v>
+        <v>1.894780628694309E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763118490071024E-09</v>
+        <v>-4.763097173788565E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763132705219603E-09</v>
+        <v>4.763127968267626E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169194</v>
       </c>
       <c r="AH2">
-        <v>0.500000000183395</v>
+        <v>0.5000000001833517</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000358</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748077</v>
+        <v>0.4999999997747663</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255477</v>
+        <v>0.5000000002255054</v>
       </c>
       <c r="AL2">
-        <v>1.055261867137541E-12</v>
+        <v>-3.055497113480697E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999987627</v>
+        <v>-179.9999999987544</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987544</v>
+        <v>179.9999999987626</v>
       </c>
       <c r="AO2">
-        <v>1.083028683220775E-12</v>
+        <v>-3.030354658712087E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905886</v>
+        <v>-179.9999999905804</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905802</v>
+        <v>179.9999999905884</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.368475785868204E-15</v>
+        <v>2.3684757858682E-15</v>
       </c>
       <c r="O3">
-        <v>3.360982700295801E-19</v>
+        <v>2.368812110949692E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615241048644E-15</v>
+        <v>4.737287677616574E-15</v>
       </c>
       <c r="Q3">
-        <v>2.686194934504545E-28</v>
+        <v>-5.010715757947377E-28</v>
       </c>
       <c r="R3">
-        <v>8.289404652663182E-15</v>
+        <v>-2.368736606923556E-15</v>
       </c>
       <c r="S3">
-        <v>7.105166532859347E-15</v>
+        <v>-4.737212175059062E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628694274E-14</v>
+        <v>4.736951571735773E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247816E-09</v>
+        <v>-1.5877101107719E-09</v>
       </c>
       <c r="V3">
-        <v>1.587721954671494E-09</v>
+        <v>1.587707743816636E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520709E-14</v>
+        <v>-9.473903143471798E-15</v>
       </c>
       <c r="X3">
-        <v>1.587712479292436E-09</v>
+        <v>1.587705373864948E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.5877172176753E-09</v>
+        <v>-1.58771248072359E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000358</v>
+        <v>1.0000000000004</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607565</v>
+        <v>0.4999999997607154</v>
       </c>
       <c r="AH3">
-        <v>0.500000000239599</v>
+        <v>0.500000000239557</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000358</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748077</v>
+        <v>0.4999999997747663</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255477</v>
+        <v>0.5000000002255054</v>
       </c>
       <c r="AL3">
-        <v>1.075480159032591E-12</v>
+        <v>-3.032306616262383E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878639</v>
+        <v>-179.9999999878557</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878555</v>
+        <v>179.9999999878637</v>
       </c>
       <c r="AO3">
-        <v>1.083028683220775E-12</v>
+        <v>-3.030354658712087E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905886</v>
+        <v>-179.9999999905804</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905802</v>
+        <v>179.9999999905884</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.638725098575303E-28</v>
+        <v>2.368475785868201E-15</v>
       </c>
       <c r="O4">
-        <v>3.360966170672683E-19</v>
+        <v>2.368812112712404E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287903542172E-15</v>
+        <v>9.474239247851877E-15</v>
       </c>
       <c r="Q4">
-        <v>-2.368475785867669E-15</v>
+        <v>-5.010715757947377E-28</v>
       </c>
       <c r="R4">
-        <v>8.28940465421815E-15</v>
+        <v>-2.368736606923556E-15</v>
       </c>
       <c r="S4">
-        <v>2.368214960544887E-15</v>
+        <v>-9.474163747374468E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520709E-14</v>
+        <v>4.736951571735771E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587703005344678E-09</v>
+        <v>-1.5877101107719E-09</v>
       </c>
       <c r="V4">
-        <v>1.587712480768344E-09</v>
+        <v>1.587698269913487E-09</v>
       </c>
       <c r="W4">
-        <v>-9.473903143471438E-15</v>
+        <v>-9.473903143471798E-15</v>
       </c>
       <c r="X4">
-        <v>1.587703005389296E-09</v>
+        <v>1.587705373864948E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587707743772152E-09</v>
+        <v>-1.587703006820442E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000358</v>
+        <v>1.0000000000004</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607567</v>
+        <v>0.4999999997607154</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395992</v>
+        <v>0.500000000239557</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000358</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748077</v>
+        <v>0.4999999997747663</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255477</v>
+        <v>0.5000000002255054</v>
       </c>
       <c r="AL4">
-        <v>1.063889642625184E-12</v>
+        <v>-3.05445318949582E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878639</v>
+        <v>-179.9999999878556</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878556</v>
+        <v>179.9999999878638</v>
       </c>
       <c r="AO4">
-        <v>1.083028683220775E-12</v>
+        <v>-3.030354658712087E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905886</v>
+        <v>-179.9999999905804</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905802</v>
+        <v>179.9999999905884</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.368475785867837E-14</v>
+        <v>-9.47390314347306E-15</v>
       </c>
       <c r="O2">
-        <v>-4.737053823277332E-15</v>
+        <v>-1.65794334383416E-14</v>
       </c>
       <c r="P2">
-        <v>9.473800206004672E-15</v>
+        <v>4.736849310573318E-15</v>
       </c>
       <c r="Q2">
-        <v>2.131628207281046E-14</v>
+        <v>9.473903143472798E-15</v>
       </c>
       <c r="R2">
-        <v>8.290447026104383E-15</v>
+        <v>1.184316138725815E-14</v>
       </c>
       <c r="S2">
-        <v>-7.104644880078303E-15</v>
+        <v>-4.736169771859495E-15</v>
       </c>
       <c r="T2">
-        <v>-4.736951571736128E-15</v>
+        <v>-2.368475785867899E-14</v>
       </c>
       <c r="U2">
-        <v>4.763118490472597E-09</v>
+        <v>4.763092437238555E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763127967866471E-09</v>
+        <v>-4.763123230914485E-09</v>
       </c>
       <c r="W2">
-        <v>9.473903143471798E-15</v>
+        <v>1.894780628694309E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763118490071024E-09</v>
+        <v>-4.763097173788565E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763132705219603E-09</v>
+        <v>4.763127968267626E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169194</v>
       </c>
       <c r="AH2">
-        <v>0.500000000183395</v>
+        <v>0.5000000001833517</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000358</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748077</v>
+        <v>0.4999999997747663</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255477</v>
+        <v>0.5000000002255054</v>
       </c>
       <c r="AL2">
-        <v>1.055261867137541E-12</v>
+        <v>-3.055497113480697E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999987627</v>
+        <v>-179.9999999987544</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987544</v>
+        <v>179.9999999987626</v>
       </c>
       <c r="AO2">
-        <v>1.083028683220775E-12</v>
+        <v>-3.030354658712087E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905886</v>
+        <v>-179.9999999905804</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905802</v>
+        <v>179.9999999905884</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.368475785868204E-15</v>
+        <v>2.3684757858682E-15</v>
       </c>
       <c r="O3">
-        <v>3.360982700295801E-19</v>
+        <v>2.368812110949692E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615241048644E-15</v>
+        <v>4.737287677616574E-15</v>
       </c>
       <c r="Q3">
-        <v>2.686194934504545E-28</v>
+        <v>-5.010715757947377E-28</v>
       </c>
       <c r="R3">
-        <v>8.289404652663182E-15</v>
+        <v>-2.368736606923556E-15</v>
       </c>
       <c r="S3">
-        <v>7.105166532859347E-15</v>
+        <v>-4.737212175059062E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628694274E-14</v>
+        <v>4.736951571735773E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247816E-09</v>
+        <v>-1.5877101107719E-09</v>
       </c>
       <c r="V3">
-        <v>1.587721954671494E-09</v>
+        <v>1.587707743816636E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520709E-14</v>
+        <v>-9.473903143471798E-15</v>
       </c>
       <c r="X3">
-        <v>1.587712479292436E-09</v>
+        <v>1.587705373864948E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.5877172176753E-09</v>
+        <v>-1.58771248072359E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000358</v>
+        <v>1.0000000000004</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607565</v>
+        <v>0.4999999997607154</v>
       </c>
       <c r="AH3">
-        <v>0.500000000239599</v>
+        <v>0.500000000239557</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000358</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748077</v>
+        <v>0.4999999997747663</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255477</v>
+        <v>0.5000000002255054</v>
       </c>
       <c r="AL3">
-        <v>1.075480159032591E-12</v>
+        <v>-3.032306616262383E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878639</v>
+        <v>-179.9999999878557</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878555</v>
+        <v>179.9999999878637</v>
       </c>
       <c r="AO3">
-        <v>1.083028683220775E-12</v>
+        <v>-3.030354658712087E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905886</v>
+        <v>-179.9999999905804</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905802</v>
+        <v>179.9999999905884</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.638725098575303E-28</v>
+        <v>2.368475785868201E-15</v>
       </c>
       <c r="O4">
-        <v>3.360966170672683E-19</v>
+        <v>2.368812112712404E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287903542172E-15</v>
+        <v>9.474239247851877E-15</v>
       </c>
       <c r="Q4">
-        <v>-2.368475785867669E-15</v>
+        <v>-5.010715757947377E-28</v>
       </c>
       <c r="R4">
-        <v>8.28940465421815E-15</v>
+        <v>-2.368736606923556E-15</v>
       </c>
       <c r="S4">
-        <v>2.368214960544887E-15</v>
+        <v>-9.474163747374468E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520709E-14</v>
+        <v>4.736951571735771E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587703005344678E-09</v>
+        <v>-1.5877101107719E-09</v>
       </c>
       <c r="V4">
-        <v>1.587712480768344E-09</v>
+        <v>1.587698269913487E-09</v>
       </c>
       <c r="W4">
-        <v>-9.473903143471438E-15</v>
+        <v>-9.473903143471798E-15</v>
       </c>
       <c r="X4">
-        <v>1.587703005389296E-09</v>
+        <v>1.587705373864948E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587707743772152E-09</v>
+        <v>-1.587703006820442E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000358</v>
+        <v>1.0000000000004</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607567</v>
+        <v>0.4999999997607154</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395992</v>
+        <v>0.500000000239557</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000358</v>
+        <v>1.000000000000401</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748077</v>
+        <v>0.4999999997747663</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255477</v>
+        <v>0.5000000002255054</v>
       </c>
       <c r="AL4">
-        <v>1.063889642625184E-12</v>
+        <v>-3.05445318949582E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878639</v>
+        <v>-179.9999999878556</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878556</v>
+        <v>179.9999999878638</v>
       </c>
       <c r="AO4">
-        <v>1.083028683220775E-12</v>
+        <v>-3.030354658712087E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905886</v>
+        <v>-179.9999999905804</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905802</v>
+        <v>179.9999999905884</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.894780628704576E-14</v>
+        <v>-7.105427357644097E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559536843648715E-10</v>
+        <v>-5.559565840390959E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551451717021762E-09</v>
+        <v>-1.551461202238596E-09</v>
       </c>
       <c r="Q2">
-        <v>2.131628207292651E-14</v>
+        <v>1.184237892940567E-14</v>
       </c>
       <c r="R2">
-        <v>5.55951262946494E-10</v>
+        <v>5.559580172716341E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453657282899E-09</v>
+        <v>1.551457898519577E-09</v>
       </c>
       <c r="T2">
-        <v>-9.473903143523244E-15</v>
+        <v>-1.894780628704568E-14</v>
       </c>
       <c r="U2">
-        <v>4.833137213129453E-09</v>
+        <v>4.833118724586639E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108909449837715E-09</v>
+        <v>-3.108893035688501E-09</v>
       </c>
       <c r="W2">
-        <v>9.473903143523298E-15</v>
+        <v>1.894780628704525E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833133358195029E-09</v>
+        <v>-4.83311244775412E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108908767912527E-09</v>
+        <v>3.108889838617884E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.0000000000058</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891385</v>
+        <v>0.6078088903891425</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140624</v>
+        <v>0.4340870104140059</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608003</v>
+        <v>0.6078088903608058</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725161</v>
+        <v>0.4340870104724605</v>
       </c>
       <c r="AL2">
-        <v>8.766181911470801E-13</v>
+        <v>-5.20934267498453E-12</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302454</v>
+        <v>-166.2935793302352</v>
       </c>
       <c r="AN2">
-        <v>160.62355363468</v>
+        <v>160.6235536346922</v>
       </c>
       <c r="AO2">
-        <v>9.042822487616391E-13</v>
+        <v>-5.184578205309381E-12</v>
       </c>
       <c r="AP2">
-        <v>-166.293579324251</v>
+        <v>-166.2935793242409</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296888</v>
+        <v>160.6235536297011</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.736951571761406E-15</v>
+        <v>-4.736951571760723E-15</v>
       </c>
       <c r="O3">
-        <v>1.853136195215463E-10</v>
+        <v>1.853206807827235E-10</v>
       </c>
       <c r="P3">
-        <v>5.171534712752634E-10</v>
+        <v>5.171569891630177E-10</v>
       </c>
       <c r="Q3">
-        <v>-4.736951571761406E-15</v>
+        <v>9.47390314352252E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853133125316292E-10</v>
+        <v>-1.853206807294198E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579229E-10</v>
+        <v>-5.171556246923534E-10</v>
       </c>
       <c r="T3">
-        <v>4.736951571761556E-15</v>
+        <v>9.473903143523591E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611060610267778E-09</v>
+        <v>-1.611047033856682E-09</v>
       </c>
       <c r="V3">
-        <v>1.036294864910764E-09</v>
+        <v>1.036311065370603E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571761556E-15</v>
+        <v>-7.10542735764323E-15</v>
       </c>
       <c r="X3">
-        <v>1.611053276269502E-09</v>
+        <v>1.611047033888181E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036299426650739E-09</v>
+        <v>-1.036307185776307E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513545</v>
+        <v>0.6078088903513602</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104920007</v>
+        <v>0.4340870104919454</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608003</v>
+        <v>0.6078088903608058</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725161</v>
+        <v>0.4340870104724605</v>
       </c>
       <c r="AL3">
-        <v>8.985597629479893E-13</v>
+        <v>-5.189883021597556E-12</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222529</v>
+        <v>-166.2935793222427</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280252</v>
+        <v>160.6235536280375</v>
       </c>
       <c r="AO3">
-        <v>9.042822487616391E-13</v>
+        <v>-5.184578205309381E-12</v>
       </c>
       <c r="AP3">
-        <v>-166.293579324251</v>
+        <v>-166.2935793242409</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296888</v>
+        <v>160.6235536297011</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.368475785880777E-15</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.853248082022445E-10</v>
+        <v>1.853220452000849E-10</v>
       </c>
       <c r="P4">
-        <v>5.171548356926233E-10</v>
+        <v>5.171592906191653E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880778E-15</v>
+        <v>4.736951571761796E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853230684595125E-10</v>
+        <v>-1.853234095641399E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171528958579229E-10</v>
+        <v>-5.171592905658627E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880703E-15</v>
+        <v>-0</v>
       </c>
       <c r="U4">
-        <v>-1.611057881433058E-09</v>
+        <v>-1.611052628197032E-09</v>
       </c>
       <c r="V4">
-        <v>1.036298744473559E-09</v>
+        <v>1.036292818284703E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880703E-15</v>
+        <v>2.368475785880362E-15</v>
       </c>
       <c r="X4">
-        <v>1.61105682398381E-09</v>
+        <v>1.611058222568879E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036299426650739E-09</v>
+        <v>-1.036292818253203E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513549</v>
+        <v>0.6078088903513604</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104920009</v>
+        <v>0.4340870104919453</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608003</v>
+        <v>0.6078088903608058</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725161</v>
+        <v>0.4340870104724605</v>
       </c>
       <c r="AL4">
-        <v>8.880809011743833E-13</v>
+        <v>-5.204520539033063E-12</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222528</v>
+        <v>-166.2935793222427</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280252</v>
+        <v>160.6235536280376</v>
       </c>
       <c r="AO4">
-        <v>9.042822487616391E-13</v>
+        <v>-5.184578205309381E-12</v>
       </c>
       <c r="AP4">
-        <v>-166.293579324251</v>
+        <v>-166.2935793242409</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296888</v>
+        <v>160.6235536297011</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.894780628704576E-14</v>
+        <v>-7.105427357644097E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559536843648715E-10</v>
+        <v>-5.559565840390959E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551451717021762E-09</v>
+        <v>-1.551461202238596E-09</v>
       </c>
       <c r="Q2">
-        <v>2.131628207292651E-14</v>
+        <v>1.184237892940567E-14</v>
       </c>
       <c r="R2">
-        <v>5.55951262946494E-10</v>
+        <v>5.559580172716341E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453657282899E-09</v>
+        <v>1.551457898519577E-09</v>
       </c>
       <c r="T2">
-        <v>-9.473903143523244E-15</v>
+        <v>-1.894780628704568E-14</v>
       </c>
       <c r="U2">
-        <v>4.833137213129453E-09</v>
+        <v>4.833118724586639E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108909449837715E-09</v>
+        <v>-3.108893035688501E-09</v>
       </c>
       <c r="W2">
-        <v>9.473903143523298E-15</v>
+        <v>1.894780628704525E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833133358195029E-09</v>
+        <v>-4.83311244775412E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108908767912527E-09</v>
+        <v>3.108889838617884E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.0000000000058</v>
+        <v>1.000000000005823</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891385</v>
+        <v>0.6078088903891425</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140624</v>
+        <v>0.4340870104140059</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608003</v>
+        <v>0.6078088903608058</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725161</v>
+        <v>0.4340870104724605</v>
       </c>
       <c r="AL2">
-        <v>8.766181911470801E-13</v>
+        <v>-5.20934267498453E-12</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302454</v>
+        <v>-166.2935793302352</v>
       </c>
       <c r="AN2">
-        <v>160.62355363468</v>
+        <v>160.6235536346922</v>
       </c>
       <c r="AO2">
-        <v>9.042822487616391E-13</v>
+        <v>-5.184578205309381E-12</v>
       </c>
       <c r="AP2">
-        <v>-166.293579324251</v>
+        <v>-166.2935793242409</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296888</v>
+        <v>160.6235536297011</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.736951571761406E-15</v>
+        <v>-4.736951571760723E-15</v>
       </c>
       <c r="O3">
-        <v>1.853136195215463E-10</v>
+        <v>1.853206807827235E-10</v>
       </c>
       <c r="P3">
-        <v>5.171534712752634E-10</v>
+        <v>5.171569891630177E-10</v>
       </c>
       <c r="Q3">
-        <v>-4.736951571761406E-15</v>
+        <v>9.47390314352252E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853133125316292E-10</v>
+        <v>-1.853206807294198E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579229E-10</v>
+        <v>-5.171556246923534E-10</v>
       </c>
       <c r="T3">
-        <v>4.736951571761556E-15</v>
+        <v>9.473903143523591E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611060610267778E-09</v>
+        <v>-1.611047033856682E-09</v>
       </c>
       <c r="V3">
-        <v>1.036294864910764E-09</v>
+        <v>1.036311065370603E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571761556E-15</v>
+        <v>-7.10542735764323E-15</v>
       </c>
       <c r="X3">
-        <v>1.611053276269502E-09</v>
+        <v>1.611047033888181E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036299426650739E-09</v>
+        <v>-1.036307185776307E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513545</v>
+        <v>0.6078088903513602</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104920007</v>
+        <v>0.4340870104919454</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608003</v>
+        <v>0.6078088903608058</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725161</v>
+        <v>0.4340870104724605</v>
       </c>
       <c r="AL3">
-        <v>8.985597629479893E-13</v>
+        <v>-5.189883021597556E-12</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222529</v>
+        <v>-166.2935793222427</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280252</v>
+        <v>160.6235536280375</v>
       </c>
       <c r="AO3">
-        <v>9.042822487616391E-13</v>
+        <v>-5.184578205309381E-12</v>
       </c>
       <c r="AP3">
-        <v>-166.293579324251</v>
+        <v>-166.2935793242409</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296888</v>
+        <v>160.6235536297011</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.368475785880777E-15</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.853248082022445E-10</v>
+        <v>1.853220452000849E-10</v>
       </c>
       <c r="P4">
-        <v>5.171548356926233E-10</v>
+        <v>5.171592906191653E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880778E-15</v>
+        <v>4.736951571761796E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853230684595125E-10</v>
+        <v>-1.853234095641399E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171528958579229E-10</v>
+        <v>-5.171592905658627E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880703E-15</v>
+        <v>-0</v>
       </c>
       <c r="U4">
-        <v>-1.611057881433058E-09</v>
+        <v>-1.611052628197032E-09</v>
       </c>
       <c r="V4">
-        <v>1.036298744473559E-09</v>
+        <v>1.036292818284703E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880703E-15</v>
+        <v>2.368475785880362E-15</v>
       </c>
       <c r="X4">
-        <v>1.61105682398381E-09</v>
+        <v>1.611058222568879E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036299426650739E-09</v>
+        <v>-1.036292818253203E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513549</v>
+        <v>0.6078088903513604</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104920009</v>
+        <v>0.4340870104919453</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005822</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608003</v>
+        <v>0.6078088903608058</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725161</v>
+        <v>0.4340870104724605</v>
       </c>
       <c r="AL4">
-        <v>8.880809011743833E-13</v>
+        <v>-5.204520539033063E-12</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222528</v>
+        <v>-166.2935793222427</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280252</v>
+        <v>160.6235536280376</v>
       </c>
       <c r="AO4">
-        <v>9.042822487616391E-13</v>
+        <v>-5.184578205309381E-12</v>
       </c>
       <c r="AP4">
-        <v>-166.293579324251</v>
+        <v>-166.2935793242409</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296888</v>
+        <v>160.6235536297011</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957788508231447E-09</v>
+        <v>-2.95778242914157E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394542215520721E-10</v>
+        <v>-7.394333489091684E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393970697876926E-10</v>
+        <v>-7.394437618494384E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957787640044089E-09</v>
+        <v>2.957784600498195E-09</v>
       </c>
       <c r="R2">
-        <v>7.394501432835497E-10</v>
+        <v>7.394388619031574E-10</v>
       </c>
       <c r="S2">
-        <v>7.394015824036691E-10</v>
+        <v>7.394437619128829E-10</v>
       </c>
       <c r="T2">
-        <v>8.675838080592709E-16</v>
+        <v>2.344705320576498E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842280370213884E-09</v>
+        <v>-3.842269178182572E-09</v>
       </c>
       <c r="V2">
-        <v>3.842238722201279E-09</v>
+        <v>3.842262494098885E-09</v>
       </c>
       <c r="W2">
-        <v>2.606468693079047E-15</v>
+        <v>-8.68326587426724E-15</v>
       </c>
       <c r="X2">
-        <v>3.842283495003279E-09</v>
+        <v>3.842285666105995E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842237853688153E-09</v>
+        <v>-3.842262494026902E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,40 +4810,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541478</v>
+        <v>0.3666666746539122</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760822</v>
+        <v>0.9701088351760941</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717459</v>
+        <v>0.9701088350718208</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856085</v>
+        <v>0.3666666746853722</v>
       </c>
       <c r="AK2">
-        <v>0.970108835196581</v>
+        <v>0.9701088351965924</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571924</v>
+        <v>0.970108835057268</v>
       </c>
       <c r="AM2">
-        <v>1.66075176717789E-08</v>
+        <v>1.661244787466733E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492976</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504706</v>
+        <v>100.8933946504839</v>
       </c>
       <c r="AP2">
-        <v>2.218524105655676E-08</v>
+        <v>2.21902781275629E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500107</v>
       </c>
       <c r="AR2">
-        <v>100.893394651582</v>
+        <v>100.8933946515954</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859277659743232E-10</v>
+        <v>9.859268975325469E-10</v>
       </c>
       <c r="O3">
-        <v>2.464675587765521E-10</v>
+        <v>2.464823523327336E-10</v>
       </c>
       <c r="P3">
-        <v>2.464764519447782E-10</v>
+        <v>2.464728078337004E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859286343872707E-10</v>
+        <v>-9.859316739306278E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464806622065396E-10</v>
+        <v>-2.464794447185612E-10</v>
       </c>
       <c r="S3">
-        <v>-2.46470202502913E-10</v>
+        <v>-2.464818329317213E-10</v>
       </c>
       <c r="T3">
-        <v>7.816384014781738E-15</v>
+        <v>9.553266381805104E-15</v>
       </c>
       <c r="U3">
-        <v>1.28076810975372E-09</v>
+        <v>1.280747713917104E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280753528924556E-09</v>
+        <v>-1.280758909918273E-09</v>
       </c>
       <c r="W3">
-        <v>2.604941664440107E-15</v>
+        <v>5.210264998014852E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280763248146032E-09</v>
+        <v>-1.280744763715273E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280745372268624E-09</v>
+        <v>1.280757173043991E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,40 +4941,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960952</v>
+        <v>0.3666666746958589</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034138</v>
+        <v>0.9701088352034253</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523414</v>
+        <v>0.9701088350524169</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856085</v>
+        <v>0.3666666746853722</v>
       </c>
       <c r="AK3">
-        <v>0.970108835196581</v>
+        <v>0.9701088351965924</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571924</v>
+        <v>0.970108835057268</v>
       </c>
       <c r="AM3">
-        <v>2.404450373001381E-08</v>
+        <v>2.404952415502429E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502484</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519525</v>
+        <v>100.8933946519658</v>
       </c>
       <c r="AP3">
-        <v>2.218524105655676E-08</v>
+        <v>2.21902781275629E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500107</v>
       </c>
       <c r="AR3">
-        <v>100.893394651582</v>
+        <v>100.8933946515954</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859277659743263E-10</v>
+        <v>9.859303712971116E-10</v>
       </c>
       <c r="O4">
-        <v>2.464864774278354E-10</v>
+        <v>2.464823523327336E-10</v>
       </c>
       <c r="P4">
-        <v>2.464872139321292E-10</v>
+        <v>2.4648096449763E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859251606227087E-10</v>
+        <v>-9.859282001660687E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464978439755419E-10</v>
+        <v>-2.464884698236325E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46473676267475E-10</v>
+        <v>-2.464809644905808E-10</v>
       </c>
       <c r="T4">
-        <v>8.688548904459898E-16</v>
+        <v>2.605737259747807E-15</v>
       </c>
       <c r="U4">
-        <v>1.280769148541694E-09</v>
+        <v>1.280747713917104E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280760817147344E-09</v>
+        <v>-1.280752660483458E-09</v>
       </c>
       <c r="W4">
-        <v>2.604941665785168E-15</v>
+        <v>1.215779412317363E-14</v>
       </c>
       <c r="X4">
-        <v>-1.280755261828934E-09</v>
+        <v>-1.280743026832993E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280763422478764E-09</v>
+        <v>1.280752660491456E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,40 +5072,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960952</v>
+        <v>0.3666666746958588</v>
       </c>
       <c r="AH4">
-        <v>0.970108835203414</v>
+        <v>0.9701088352034252</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523412</v>
+        <v>0.970108835052417</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856085</v>
+        <v>0.3666666746853722</v>
       </c>
       <c r="AK4">
-        <v>0.970108835196581</v>
+        <v>0.9701088351965924</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571924</v>
+        <v>0.970108835057268</v>
       </c>
       <c r="AM4">
-        <v>2.404448518268804E-08</v>
+        <v>2.404955302163401E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502484</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519525</v>
+        <v>100.8933946519658</v>
       </c>
       <c r="AP4">
-        <v>2.218524105655676E-08</v>
+        <v>2.21902781275629E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500107</v>
       </c>
       <c r="AR4">
-        <v>100.893394651582</v>
+        <v>100.8933946515954</v>
       </c>
     </row>
   </sheetData>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957788508231447E-09</v>
+        <v>-2.95778242914157E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394542215520721E-10</v>
+        <v>-7.394333489091684E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393970697876926E-10</v>
+        <v>-7.394437618494384E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957787640044089E-09</v>
+        <v>2.957784600498195E-09</v>
       </c>
       <c r="R2">
-        <v>7.394501432835497E-10</v>
+        <v>7.394388619031574E-10</v>
       </c>
       <c r="S2">
-        <v>7.394015824036691E-10</v>
+        <v>7.394437619128829E-10</v>
       </c>
       <c r="T2">
-        <v>8.675838080592709E-16</v>
+        <v>2.344705320576498E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842280370213884E-09</v>
+        <v>-3.842269178182572E-09</v>
       </c>
       <c r="V2">
-        <v>3.842238722201279E-09</v>
+        <v>3.842262494098885E-09</v>
       </c>
       <c r="W2">
-        <v>2.606468693079047E-15</v>
+        <v>-8.68326587426724E-15</v>
       </c>
       <c r="X2">
-        <v>3.842283495003279E-09</v>
+        <v>3.842285666105995E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842237853688153E-09</v>
+        <v>-3.842262494026902E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,40 +5350,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541478</v>
+        <v>0.3666666746539122</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760822</v>
+        <v>0.9701088351760941</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717459</v>
+        <v>0.9701088350718208</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856085</v>
+        <v>0.3666666746853722</v>
       </c>
       <c r="AK2">
-        <v>0.970108835196581</v>
+        <v>0.9701088351965924</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571924</v>
+        <v>0.970108835057268</v>
       </c>
       <c r="AM2">
-        <v>1.66075176717789E-08</v>
+        <v>1.661244787466733E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492976</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504706</v>
+        <v>100.8933946504839</v>
       </c>
       <c r="AP2">
-        <v>2.218524105655676E-08</v>
+        <v>2.21902781275629E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500107</v>
       </c>
       <c r="AR2">
-        <v>100.893394651582</v>
+        <v>100.8933946515954</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859277659743232E-10</v>
+        <v>9.859268975325469E-10</v>
       </c>
       <c r="O3">
-        <v>2.464675587765521E-10</v>
+        <v>2.464823523327336E-10</v>
       </c>
       <c r="P3">
-        <v>2.464764519447782E-10</v>
+        <v>2.464728078337004E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859286343872707E-10</v>
+        <v>-9.859316739306278E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464806622065396E-10</v>
+        <v>-2.464794447185612E-10</v>
       </c>
       <c r="S3">
-        <v>-2.46470202502913E-10</v>
+        <v>-2.464818329317213E-10</v>
       </c>
       <c r="T3">
-        <v>7.816384014781738E-15</v>
+        <v>9.553266381805104E-15</v>
       </c>
       <c r="U3">
-        <v>1.28076810975372E-09</v>
+        <v>1.280747713917104E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280753528924556E-09</v>
+        <v>-1.280758909918273E-09</v>
       </c>
       <c r="W3">
-        <v>2.604941664440107E-15</v>
+        <v>5.210264998014852E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280763248146032E-09</v>
+        <v>-1.280744763715273E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280745372268624E-09</v>
+        <v>1.280757173043991E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,40 +5481,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960952</v>
+        <v>0.3666666746958589</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034138</v>
+        <v>0.9701088352034253</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523414</v>
+        <v>0.9701088350524169</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856085</v>
+        <v>0.3666666746853722</v>
       </c>
       <c r="AK3">
-        <v>0.970108835196581</v>
+        <v>0.9701088351965924</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571924</v>
+        <v>0.970108835057268</v>
       </c>
       <c r="AM3">
-        <v>2.404450373001381E-08</v>
+        <v>2.404952415502429E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502484</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519525</v>
+        <v>100.8933946519658</v>
       </c>
       <c r="AP3">
-        <v>2.218524105655676E-08</v>
+        <v>2.21902781275629E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500107</v>
       </c>
       <c r="AR3">
-        <v>100.893394651582</v>
+        <v>100.8933946515954</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859277659743263E-10</v>
+        <v>9.859303712971116E-10</v>
       </c>
       <c r="O4">
-        <v>2.464864774278354E-10</v>
+        <v>2.464823523327336E-10</v>
       </c>
       <c r="P4">
-        <v>2.464872139321292E-10</v>
+        <v>2.4648096449763E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859251606227087E-10</v>
+        <v>-9.859282001660687E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464978439755419E-10</v>
+        <v>-2.464884698236325E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46473676267475E-10</v>
+        <v>-2.464809644905808E-10</v>
       </c>
       <c r="T4">
-        <v>8.688548904459898E-16</v>
+        <v>2.605737259747807E-15</v>
       </c>
       <c r="U4">
-        <v>1.280769148541694E-09</v>
+        <v>1.280747713917104E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280760817147344E-09</v>
+        <v>-1.280752660483458E-09</v>
       </c>
       <c r="W4">
-        <v>2.604941665785168E-15</v>
+        <v>1.215779412317363E-14</v>
       </c>
       <c r="X4">
-        <v>-1.280755261828934E-09</v>
+        <v>-1.280743026832993E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280763422478764E-09</v>
+        <v>1.280752660491456E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,40 +5612,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960952</v>
+        <v>0.3666666746958588</v>
       </c>
       <c r="AH4">
-        <v>0.970108835203414</v>
+        <v>0.9701088352034252</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523412</v>
+        <v>0.970108835052417</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856085</v>
+        <v>0.3666666746853722</v>
       </c>
       <c r="AK4">
-        <v>0.970108835196581</v>
+        <v>0.9701088351965924</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571924</v>
+        <v>0.970108835057268</v>
       </c>
       <c r="AM4">
-        <v>2.404448518268804E-08</v>
+        <v>2.404955302163401E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502484</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519525</v>
+        <v>100.8933946519658</v>
       </c>
       <c r="AP4">
-        <v>2.218524105655676E-08</v>
+        <v>2.21902781275629E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500107</v>
       </c>
       <c r="AR4">
-        <v>100.893394651582</v>
+        <v>100.8933946515954</v>
       </c>
     </row>
   </sheetData>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138986517051287E-09</v>
+        <v>-3.138986066803299E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398939111964439E-09</v>
+        <v>-1.398912643746828E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705488000132086E-10</v>
+        <v>-1.705674926911813E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138993251712971E-09</v>
+        <v>3.138986986141577E-09</v>
       </c>
       <c r="R2">
-        <v>1.398932061069118E-09</v>
+        <v>1.398926450846405E-09</v>
       </c>
       <c r="S2">
-        <v>1.705574260309622E-10</v>
+        <v>1.705574260313864E-10</v>
       </c>
       <c r="T2">
-        <v>1.418395415333071E-09</v>
+        <v>1.418413259035913E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221725190403404E-09</v>
+        <v>-2.221734194792755E-09</v>
       </c>
       <c r="V2">
-        <v>2.930909842955156E-09</v>
+        <v>2.930919891418934E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418391483288697E-09</v>
+        <v>-1.418400735291631E-09</v>
       </c>
       <c r="X2">
-        <v>2.221728770395409E-09</v>
+        <v>2.221736585267876E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930912472057641E-09</v>
+        <v>-2.930912472057857E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,40 +5890,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695817</v>
+        <v>0.6194744497694106</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443454</v>
+        <v>0.94433477094436</v>
       </c>
       <c r="AI2">
-        <v>1.055985897694145</v>
+        <v>1.055985897694231</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792123</v>
+        <v>0.6194744497790406</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605335</v>
+        <v>0.9443347709605477</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682493</v>
+        <v>1.05598589768258</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785042</v>
+        <v>-10.90775017850349</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042145</v>
+        <v>-108.7881138042248</v>
       </c>
       <c r="AO2">
-        <v>106.7392371168767</v>
+        <v>106.7392371168847</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560443</v>
+        <v>-10.90775017560368</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043735</v>
+        <v>-108.7881138043838</v>
       </c>
       <c r="AR2">
-        <v>106.7392371175028</v>
+        <v>106.7392371175108</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046330689988355E-09</v>
+        <v>1.046320935223485E-09</v>
       </c>
       <c r="O3">
-        <v>4.663036651649581E-10</v>
+        <v>4.663173414463685E-10</v>
       </c>
       <c r="P3">
-        <v>5.685871231497926E-11</v>
+        <v>5.685727161278942E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046335481052507E-09</v>
+        <v>-1.046320015992394E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663035997675278E-10</v>
+        <v>-4.663105635010272E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685343581187481E-11</v>
+        <v>-5.68611074068637E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727888670346759E-10</v>
+        <v>-4.727929640179568E-10</v>
       </c>
       <c r="U3">
-        <v>7.405845519090665E-10</v>
+        <v>7.405657241794302E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769828775047417E-10</v>
+        <v>-9.769780873146285E-10</v>
       </c>
       <c r="W3">
-        <v>4.727950200586364E-10</v>
+        <v>4.728054876406227E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405739428200257E-10</v>
+        <v>-7.405562174151646E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769740174793374E-10</v>
+        <v>9.769821571574486E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,40 +6021,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824224</v>
+        <v>0.6194744497822507</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659294</v>
+        <v>0.9443347709659438</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678609</v>
+        <v>1.055985897678696</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792123</v>
+        <v>0.6194744497790406</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605335</v>
+        <v>0.9443347709605477</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682493</v>
+        <v>1.05598589768258</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463783</v>
+        <v>-10.90775017463709</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044265</v>
+        <v>-108.7881138044368</v>
       </c>
       <c r="AO3">
-        <v>106.7392371177115</v>
+        <v>106.7392371177195</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560443</v>
+        <v>-10.90775017560368</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043735</v>
+        <v>-108.7881138043838</v>
       </c>
       <c r="AR3">
-        <v>106.7392371175028</v>
+        <v>106.7392371175108</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046329579437755E-09</v>
+        <v>1.046326698032809E-09</v>
       </c>
       <c r="O4">
-        <v>4.66312134994729E-10</v>
+        <v>4.663117530212599E-10</v>
       </c>
       <c r="P4">
-        <v>5.684769123227762E-11</v>
+        <v>5.685104072027305E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046334370501907E-09</v>
+        <v>-1.046325778801718E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663149510019607E-10</v>
+        <v>-4.663049750759187E-10</v>
       </c>
       <c r="S4">
-        <v>-5.684385543150437E-11</v>
+        <v>-5.685343581201622E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727946298440006E-10</v>
+        <v>-4.727940745685559E-10</v>
       </c>
       <c r="U4">
-        <v>7.405816705044045E-10</v>
+        <v>7.405770754138631E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769809687192186E-10</v>
+        <v>-9.769747378267744E-10</v>
       </c>
       <c r="W4">
-        <v>4.728007828679607E-10</v>
+        <v>4.728065981912222E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405795312451342E-10</v>
+        <v>-7.405675686495977E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769768988839995E-10</v>
+        <v>9.769740174794094E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,40 +6152,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824224</v>
+        <v>0.6194744497822507</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659297</v>
+        <v>0.9443347709659436</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678609</v>
+        <v>1.055985897678696</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792123</v>
+        <v>0.6194744497790406</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605335</v>
+        <v>0.9443347709605477</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682493</v>
+        <v>1.05598589768258</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463784</v>
+        <v>-10.90775017463708</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044265</v>
+        <v>-108.7881138044368</v>
       </c>
       <c r="AO4">
-        <v>106.7392371177115</v>
+        <v>106.7392371177195</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560443</v>
+        <v>-10.90775017560368</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043735</v>
+        <v>-108.7881138043838</v>
       </c>
       <c r="AR4">
-        <v>106.7392371175028</v>
+        <v>106.7392371175108</v>
       </c>
     </row>
   </sheetData>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138986517051287E-09</v>
+        <v>-3.138986066803299E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398939111964439E-09</v>
+        <v>-1.398912643746828E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705488000132086E-10</v>
+        <v>-1.705674926911813E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138993251712971E-09</v>
+        <v>3.138986986141577E-09</v>
       </c>
       <c r="R2">
-        <v>1.398932061069118E-09</v>
+        <v>1.398926450846405E-09</v>
       </c>
       <c r="S2">
-        <v>1.705574260309622E-10</v>
+        <v>1.705574260313864E-10</v>
       </c>
       <c r="T2">
-        <v>1.418395415333071E-09</v>
+        <v>1.418413259035913E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221725190403404E-09</v>
+        <v>-2.221734194792755E-09</v>
       </c>
       <c r="V2">
-        <v>2.930909842955156E-09</v>
+        <v>2.930919891418934E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418391483288697E-09</v>
+        <v>-1.418400735291631E-09</v>
       </c>
       <c r="X2">
-        <v>2.221728770395409E-09</v>
+        <v>2.221736585267876E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930912472057641E-09</v>
+        <v>-2.930912472057857E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,40 +6655,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695817</v>
+        <v>0.6194744497694106</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443454</v>
+        <v>0.94433477094436</v>
       </c>
       <c r="AI2">
-        <v>1.055985897694145</v>
+        <v>1.055985897694231</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792123</v>
+        <v>0.6194744497790406</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605335</v>
+        <v>0.9443347709605477</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682493</v>
+        <v>1.05598589768258</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785042</v>
+        <v>-10.90775017850349</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042145</v>
+        <v>-108.7881138042248</v>
       </c>
       <c r="AO2">
-        <v>106.7392371168767</v>
+        <v>106.7392371168847</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560443</v>
+        <v>-10.90775017560368</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043735</v>
+        <v>-108.7881138043838</v>
       </c>
       <c r="AR2">
-        <v>106.7392371175028</v>
+        <v>106.7392371175108</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046330689988355E-09</v>
+        <v>1.046320935223485E-09</v>
       </c>
       <c r="O3">
-        <v>4.663036651649581E-10</v>
+        <v>4.663173414463685E-10</v>
       </c>
       <c r="P3">
-        <v>5.685871231497926E-11</v>
+        <v>5.685727161278942E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046335481052507E-09</v>
+        <v>-1.046320015992394E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663035997675278E-10</v>
+        <v>-4.663105635010272E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685343581187481E-11</v>
+        <v>-5.68611074068637E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727888670346759E-10</v>
+        <v>-4.727929640179568E-10</v>
       </c>
       <c r="U3">
-        <v>7.405845519090665E-10</v>
+        <v>7.405657241794302E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769828775047417E-10</v>
+        <v>-9.769780873146285E-10</v>
       </c>
       <c r="W3">
-        <v>4.727950200586364E-10</v>
+        <v>4.728054876406227E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405739428200257E-10</v>
+        <v>-7.405562174151646E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769740174793374E-10</v>
+        <v>9.769821571574486E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,40 +6786,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824224</v>
+        <v>0.6194744497822507</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659294</v>
+        <v>0.9443347709659438</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678609</v>
+        <v>1.055985897678696</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792123</v>
+        <v>0.6194744497790406</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605335</v>
+        <v>0.9443347709605477</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682493</v>
+        <v>1.05598589768258</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463783</v>
+        <v>-10.90775017463709</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044265</v>
+        <v>-108.7881138044368</v>
       </c>
       <c r="AO3">
-        <v>106.7392371177115</v>
+        <v>106.7392371177195</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560443</v>
+        <v>-10.90775017560368</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043735</v>
+        <v>-108.7881138043838</v>
       </c>
       <c r="AR3">
-        <v>106.7392371175028</v>
+        <v>106.7392371175108</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046329579437755E-09</v>
+        <v>1.046326698032809E-09</v>
       </c>
       <c r="O4">
-        <v>4.66312134994729E-10</v>
+        <v>4.663117530212599E-10</v>
       </c>
       <c r="P4">
-        <v>5.684769123227762E-11</v>
+        <v>5.685104072027305E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046334370501907E-09</v>
+        <v>-1.046325778801718E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663149510019607E-10</v>
+        <v>-4.663049750759187E-10</v>
       </c>
       <c r="S4">
-        <v>-5.684385543150437E-11</v>
+        <v>-5.685343581201622E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727946298440006E-10</v>
+        <v>-4.727940745685559E-10</v>
       </c>
       <c r="U4">
-        <v>7.405816705044045E-10</v>
+        <v>7.405770754138631E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769809687192186E-10</v>
+        <v>-9.769747378267744E-10</v>
       </c>
       <c r="W4">
-        <v>4.728007828679607E-10</v>
+        <v>4.728065981912222E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405795312451342E-10</v>
+        <v>-7.405675686495977E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769768988839995E-10</v>
+        <v>9.769740174794094E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,40 +6917,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824224</v>
+        <v>0.6194744497822507</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659297</v>
+        <v>0.9443347709659436</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678609</v>
+        <v>1.055985897678696</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792123</v>
+        <v>0.6194744497790406</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605335</v>
+        <v>0.9443347709605477</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682493</v>
+        <v>1.05598589768258</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463784</v>
+        <v>-10.90775017463708</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044265</v>
+        <v>-108.7881138044368</v>
       </c>
       <c r="AO4">
-        <v>106.7392371177115</v>
+        <v>106.7392371177195</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560443</v>
+        <v>-10.90775017560368</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043735</v>
+        <v>-108.7881138043838</v>
       </c>
       <c r="AR4">
-        <v>106.7392371175028</v>
+        <v>106.7392371175108</v>
       </c>
     </row>
   </sheetData>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317777E-09</v>
+        <v>-2.444433199048154E-09</v>
       </c>
       <c r="O2">
-        <v>-6.110977129832817E-10</v>
+        <v>-6.110975505281737E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111134876337567E-10</v>
+        <v>-6.110984948809158E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432015212386E-09</v>
+        <v>2.44442964673716E-09</v>
       </c>
       <c r="R2">
-        <v>6.111031970152305E-10</v>
+        <v>6.111015368036776E-10</v>
       </c>
       <c r="S2">
-        <v>6.111101749059625E-10</v>
+        <v>6.1110496577777E-10</v>
       </c>
       <c r="T2">
-        <v>-9.079511322697354E-15</v>
+        <v>-6.711036690944741E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175445285024918E-09</v>
+        <v>-3.175411282223266E-09</v>
       </c>
       <c r="V2">
-        <v>3.175416723465751E-09</v>
+        <v>3.175394083273766E-09</v>
       </c>
       <c r="W2">
-        <v>6.316527534950316E-15</v>
+        <v>1.579577116006553E-15</v>
       </c>
       <c r="X2">
-        <v>3.175451674653179E-09</v>
+        <v>3.175426468611268E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175421615218585E-09</v>
+        <v>-3.175405600683539E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,40 +7195,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308625</v>
+        <v>0.3333333333309382</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085329</v>
+        <v>0.8819171037083641</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036610958</v>
+        <v>0.8819171036612368</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857736</v>
+        <v>0.3333333333858499</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296546</v>
+        <v>0.8819171037294854</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503519</v>
+        <v>0.8819171036504928</v>
       </c>
       <c r="AM2">
-        <v>8.300881554525375E-09</v>
+        <v>8.327926027073045E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487908</v>
+        <v>-100.8933946487879</v>
       </c>
       <c r="AO2">
-        <v>100.893394649385</v>
+        <v>100.8933946493782</v>
       </c>
       <c r="AP2">
-        <v>1.387852722351684E-08</v>
+        <v>1.390557875421071E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503403</v>
       </c>
       <c r="AR2">
-        <v>100.8933946513358</v>
+        <v>100.893394651329</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148061979946089E-10</v>
+        <v>8.14816856135835E-10</v>
       </c>
       <c r="O3">
-        <v>2.037067586265675E-10</v>
+        <v>2.037015494985599E-10</v>
       </c>
       <c r="P3">
-        <v>2.036982366702039E-10</v>
+        <v>2.037051796426354E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148085664256515E-10</v>
+        <v>-8.148172508370546E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037000130158385E-10</v>
+        <v>-2.037052957769969E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037048623159558E-10</v>
+        <v>-2.037036006475928E-10</v>
       </c>
       <c r="T3">
-        <v>-1.184014085251663E-15</v>
+        <v>-3.945217687092411E-16</v>
       </c>
       <c r="U3">
-        <v>1.058480314299545E-09</v>
+        <v>1.058464299763725E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058469191464317E-09</v>
+        <v>-1.058472109547015E-09</v>
       </c>
       <c r="W3">
-        <v>-3.158165082802194E-15</v>
+        <v>-1.579181612119485E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058478421790529E-09</v>
+        <v>-1.058456133831508E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058459407846275E-09</v>
+        <v>1.05846390491283E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,40 +7326,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040776</v>
+        <v>0.3333333334041544</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366949</v>
+        <v>0.8819171037365257</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467708</v>
+        <v>0.8819171036469114</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857736</v>
+        <v>0.3333333333858499</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296546</v>
+        <v>0.8819171037294854</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503519</v>
+        <v>0.8819171036504928</v>
       </c>
       <c r="AM3">
-        <v>1.573779142063399E-08</v>
+        <v>1.576485130903608E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508578</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519861</v>
+        <v>100.8933946519793</v>
       </c>
       <c r="AP3">
-        <v>1.387852722351684E-08</v>
+        <v>1.390557875421071E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503403</v>
       </c>
       <c r="AR3">
-        <v>100.8933946513358</v>
+        <v>100.893394651329</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300388E-10</v>
+        <v>8.148105402004034E-10</v>
       </c>
       <c r="O4">
-        <v>2.037059691346389E-10</v>
+        <v>2.037062864501331E-10</v>
       </c>
       <c r="P4">
-        <v>2.037023389906014E-10</v>
+        <v>2.036994983383806E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148117243933666E-10</v>
+        <v>-8.148109349016243E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037041153362363E-10</v>
+        <v>-2.037043514243141E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037064412998132E-10</v>
+        <v>-2.036971298514092E-10</v>
       </c>
       <c r="T4">
-        <v>-1.184014083908945E-15</v>
+        <v>1.184462086459495E-15</v>
       </c>
       <c r="U4">
-        <v>1.058476211979147E-09</v>
+        <v>1.058488913686112E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058468401972388E-09</v>
+        <v>-1.058464694398148E-09</v>
       </c>
       <c r="W4">
-        <v>-3.158165083567135E-15</v>
+        <v>-3.158165468080054E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058477632298601E-09</v>
+        <v>-1.058473332605028E-09</v>
       </c>
       <c r="Y4">
-        <v>1.05846761248707E-09</v>
+        <v>1.058452387443566E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,40 +7457,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040774</v>
+        <v>0.3333333334041539</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366951</v>
+        <v>0.881917103736526</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467707</v>
+        <v>0.8819171036469113</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857736</v>
+        <v>0.3333333333858499</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296546</v>
+        <v>0.8819171037294854</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503519</v>
+        <v>0.8819171036504928</v>
       </c>
       <c r="AM4">
-        <v>1.573776384763211E-08</v>
+        <v>1.576480394393463E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508578</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519861</v>
+        <v>100.8933946519793</v>
       </c>
       <c r="AP4">
-        <v>1.387852722351684E-08</v>
+        <v>1.390557875421071E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503403</v>
       </c>
       <c r="AR4">
-        <v>100.8933946513358</v>
+        <v>100.893394651329</v>
       </c>
     </row>
   </sheetData>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317777E-09</v>
+        <v>-2.444433199048154E-09</v>
       </c>
       <c r="O2">
-        <v>-6.110977129832817E-10</v>
+        <v>-6.110975505281737E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111134876337567E-10</v>
+        <v>-6.110984948809158E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432015212386E-09</v>
+        <v>2.44442964673716E-09</v>
       </c>
       <c r="R2">
-        <v>6.111031970152305E-10</v>
+        <v>6.111015368036776E-10</v>
       </c>
       <c r="S2">
-        <v>6.111101749059625E-10</v>
+        <v>6.1110496577777E-10</v>
       </c>
       <c r="T2">
-        <v>-9.079511322697354E-15</v>
+        <v>-6.711036690944741E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175445285024918E-09</v>
+        <v>-3.175411282223266E-09</v>
       </c>
       <c r="V2">
-        <v>3.175416723465751E-09</v>
+        <v>3.175394083273766E-09</v>
       </c>
       <c r="W2">
-        <v>6.316527534950316E-15</v>
+        <v>1.579577116006553E-15</v>
       </c>
       <c r="X2">
-        <v>3.175451674653179E-09</v>
+        <v>3.175426468611268E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175421615218585E-09</v>
+        <v>-3.175405600683539E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,40 +7735,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308625</v>
+        <v>0.3333333333309382</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085329</v>
+        <v>0.8819171037083641</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036610958</v>
+        <v>0.8819171036612368</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857736</v>
+        <v>0.3333333333858499</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296546</v>
+        <v>0.8819171037294854</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503519</v>
+        <v>0.8819171036504928</v>
       </c>
       <c r="AM2">
-        <v>8.300881554525375E-09</v>
+        <v>8.327926027073045E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487908</v>
+        <v>-100.8933946487879</v>
       </c>
       <c r="AO2">
-        <v>100.893394649385</v>
+        <v>100.8933946493782</v>
       </c>
       <c r="AP2">
-        <v>1.387852722351684E-08</v>
+        <v>1.390557875421071E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503403</v>
       </c>
       <c r="AR2">
-        <v>100.8933946513358</v>
+        <v>100.893394651329</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148061979946089E-10</v>
+        <v>8.14816856135835E-10</v>
       </c>
       <c r="O3">
-        <v>2.037067586265675E-10</v>
+        <v>2.037015494985599E-10</v>
       </c>
       <c r="P3">
-        <v>2.036982366702039E-10</v>
+        <v>2.037051796426354E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148085664256515E-10</v>
+        <v>-8.148172508370546E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037000130158385E-10</v>
+        <v>-2.037052957769969E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037048623159558E-10</v>
+        <v>-2.037036006475928E-10</v>
       </c>
       <c r="T3">
-        <v>-1.184014085251663E-15</v>
+        <v>-3.945217687092411E-16</v>
       </c>
       <c r="U3">
-        <v>1.058480314299545E-09</v>
+        <v>1.058464299763725E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058469191464317E-09</v>
+        <v>-1.058472109547015E-09</v>
       </c>
       <c r="W3">
-        <v>-3.158165082802194E-15</v>
+        <v>-1.579181612119485E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058478421790529E-09</v>
+        <v>-1.058456133831508E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058459407846275E-09</v>
+        <v>1.05846390491283E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,40 +7866,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040776</v>
+        <v>0.3333333334041544</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366949</v>
+        <v>0.8819171037365257</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467708</v>
+        <v>0.8819171036469114</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857736</v>
+        <v>0.3333333333858499</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296546</v>
+        <v>0.8819171037294854</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503519</v>
+        <v>0.8819171036504928</v>
       </c>
       <c r="AM3">
-        <v>1.573779142063399E-08</v>
+        <v>1.576485130903608E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508578</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519861</v>
+        <v>100.8933946519793</v>
       </c>
       <c r="AP3">
-        <v>1.387852722351684E-08</v>
+        <v>1.390557875421071E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503403</v>
       </c>
       <c r="AR3">
-        <v>100.8933946513358</v>
+        <v>100.893394651329</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300388E-10</v>
+        <v>8.148105402004034E-10</v>
       </c>
       <c r="O4">
-        <v>2.037059691346389E-10</v>
+        <v>2.037062864501331E-10</v>
       </c>
       <c r="P4">
-        <v>2.037023389906014E-10</v>
+        <v>2.036994983383806E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148117243933666E-10</v>
+        <v>-8.148109349016243E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037041153362363E-10</v>
+        <v>-2.037043514243141E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037064412998132E-10</v>
+        <v>-2.036971298514092E-10</v>
       </c>
       <c r="T4">
-        <v>-1.184014083908945E-15</v>
+        <v>1.184462086459495E-15</v>
       </c>
       <c r="U4">
-        <v>1.058476211979147E-09</v>
+        <v>1.058488913686112E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058468401972388E-09</v>
+        <v>-1.058464694398148E-09</v>
       </c>
       <c r="W4">
-        <v>-3.158165083567135E-15</v>
+        <v>-3.158165468080054E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058477632298601E-09</v>
+        <v>-1.058473332605028E-09</v>
       </c>
       <c r="Y4">
-        <v>1.05846761248707E-09</v>
+        <v>1.058452387443566E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,40 +7997,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040774</v>
+        <v>0.3333333334041539</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366951</v>
+        <v>0.881917103736526</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467707</v>
+        <v>0.8819171036469113</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857736</v>
+        <v>0.3333333333858499</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296546</v>
+        <v>0.8819171037294854</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503519</v>
+        <v>0.8819171036504928</v>
       </c>
       <c r="AM4">
-        <v>1.573776384763211E-08</v>
+        <v>1.576480394393463E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508607</v>
+        <v>-100.8933946508578</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519861</v>
+        <v>100.8933946519793</v>
       </c>
       <c r="AP4">
-        <v>1.387852722351684E-08</v>
+        <v>1.390557875421071E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503403</v>
       </c>
       <c r="AR4">
-        <v>100.8933946513358</v>
+        <v>100.893394651329</v>
       </c>
     </row>
   </sheetData>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624749430618872E-09</v>
+        <v>-2.624744445429332E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140199230957063E-09</v>
+        <v>-1.140191289364993E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721806025100037E-10</v>
+        <v>-1.721654342263229E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624748619648813E-09</v>
+        <v>2.624737026914584E-09</v>
       </c>
       <c r="R2">
-        <v>1.140201811906752E-09</v>
+        <v>1.140193200832587E-09</v>
       </c>
       <c r="S2">
-        <v>1.721773453140392E-10</v>
+        <v>1.721684120370794E-10</v>
       </c>
       <c r="T2">
-        <v>1.117776912588445E-09</v>
+        <v>1.117775634546308E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947083410619713E-09</v>
+        <v>-1.947068910049364E-09</v>
       </c>
       <c r="V2">
-        <v>2.505958169432185E-09</v>
+        <v>2.50593431879465E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117777738132417E-09</v>
+        <v>-1.117776833381654E-09</v>
       </c>
       <c r="X2">
-        <v>1.947081499234584E-09</v>
+        <v>1.947071490977848E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505959115406382E-09</v>
+        <v>-2.505940517924676E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,40 +8275,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499178</v>
+        <v>0.5421614591499451</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155502</v>
+        <v>0.8576025463154285</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659597</v>
+        <v>0.9547184906660541</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770456</v>
+        <v>0.5421614591770734</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355524</v>
+        <v>0.8576025463354303</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556955</v>
+        <v>0.9547184906557896</v>
       </c>
       <c r="AM2">
-        <v>-10.8027716940335</v>
+        <v>-10.80277169402091</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155924</v>
+        <v>-108.0887396155916</v>
       </c>
       <c r="AO2">
-        <v>106.1949204558221</v>
+        <v>106.1949204558174</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013807</v>
+        <v>-10.80277169012548</v>
       </c>
       <c r="AQ2">
-        <v>-108.0887396163352</v>
+        <v>-108.0887396163344</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570496</v>
+        <v>106.1949204570448</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749132322555563E-10</v>
+        <v>8.749136534398527E-10</v>
       </c>
       <c r="O3">
-        <v>3.80067328859655E-10</v>
+        <v>3.800647285556335E-10</v>
       </c>
       <c r="P3">
-        <v>5.73902876806518E-11</v>
+        <v>5.739281036013081E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749193294456594E-10</v>
+        <v>-8.749208314622253E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800698709395421E-10</v>
+        <v>-3.800634866162073E-10</v>
       </c>
       <c r="S3">
-        <v>-5.739137342415921E-11</v>
+        <v>-5.739109393521982E-11</v>
       </c>
       <c r="T3">
-        <v>-3.72595606807671E-10</v>
+        <v>-3.725933994628982E-10</v>
       </c>
       <c r="U3">
-        <v>6.490175317117117E-10</v>
+        <v>6.490226546951254E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353109140262782E-10</v>
+        <v>-8.35319600020497E-10</v>
       </c>
       <c r="W3">
-        <v>3.725944825216923E-10</v>
+        <v>3.72593461858416E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490220434280273E-10</v>
+        <v>-6.490155814802528E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353105986947386E-10</v>
+        <v>8.353177438603103E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,40 +8406,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860884</v>
+        <v>0.5421614591861164</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422196</v>
+        <v>0.8576025463420974</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522741</v>
+        <v>0.9547184906523684</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770456</v>
+        <v>0.5421614591770734</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355524</v>
+        <v>0.8576025463354303</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556955</v>
+        <v>0.9547184906557896</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883958</v>
+        <v>-10.80277168882698</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165828</v>
+        <v>-108.0887396165819</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574587</v>
+        <v>106.194920457454</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013807</v>
+        <v>-10.80277169012548</v>
       </c>
       <c r="AQ3">
-        <v>-108.0887396163352</v>
+        <v>-108.0887396163344</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570496</v>
+        <v>106.1949204570448</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749137136088926E-10</v>
+        <v>8.749138941165208E-10</v>
       </c>
       <c r="O4">
-        <v>3.800682166461718E-10</v>
+        <v>3.800714864321599E-10</v>
       </c>
       <c r="P4">
-        <v>5.739154902042314E-11</v>
+        <v>5.739263476962603E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749150061165794E-10</v>
+        <v>-8.749213128155619E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800663052246517E-10</v>
+        <v>-3.800663828490042E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739263476393044E-11</v>
+        <v>-5.738857125567739E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725930841281287E-10</v>
+        <v>-3.725921381231271E-10</v>
       </c>
       <c r="U4">
-        <v>6.490300626477283E-10</v>
+        <v>6.490204473505258E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353152570233439E-10</v>
+        <v>-8.353149416884882E-10</v>
       </c>
       <c r="W4">
-        <v>3.725897357957056E-10</v>
+        <v>3.725909391788736E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490274817464707E-10</v>
+        <v>-6.490146354754245E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353149416918045E-10</v>
+        <v>8.353090578661785E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,40 +8537,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860883</v>
+        <v>0.5421614591861161</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422197</v>
+        <v>0.8576025463420975</v>
       </c>
       <c r="AI4">
-        <v>0.9547184906522741</v>
+        <v>0.9547184906523681</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770456</v>
+        <v>0.5421614591770734</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355524</v>
+        <v>0.8576025463354303</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556955</v>
+        <v>0.9547184906557896</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883959</v>
+        <v>-10.802771688827</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165828</v>
+        <v>-108.0887396165819</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574587</v>
+        <v>106.194920457454</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013807</v>
+        <v>-10.80277169012548</v>
       </c>
       <c r="AQ4">
-        <v>-108.0887396163352</v>
+        <v>-108.0887396163344</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570496</v>
+        <v>106.1949204570448</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624749430618872E-09</v>
+        <v>-2.624744445429332E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140199230957063E-09</v>
+        <v>-1.140191289364993E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721806025100037E-10</v>
+        <v>-1.721654342263229E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624748619648813E-09</v>
+        <v>2.624737026914584E-09</v>
       </c>
       <c r="R2">
-        <v>1.140201811906752E-09</v>
+        <v>1.140193200832587E-09</v>
       </c>
       <c r="S2">
-        <v>1.721773453140392E-10</v>
+        <v>1.721684120370794E-10</v>
       </c>
       <c r="T2">
-        <v>1.117776912588445E-09</v>
+        <v>1.117775634546308E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947083410619713E-09</v>
+        <v>-1.947068910049364E-09</v>
       </c>
       <c r="V2">
-        <v>2.505958169432185E-09</v>
+        <v>2.50593431879465E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117777738132417E-09</v>
+        <v>-1.117776833381654E-09</v>
       </c>
       <c r="X2">
-        <v>1.947081499234584E-09</v>
+        <v>1.947071490977848E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505959115406382E-09</v>
+        <v>-2.505940517924676E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,40 +8815,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499178</v>
+        <v>0.5421614591499451</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155502</v>
+        <v>0.8576025463154285</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659597</v>
+        <v>0.9547184906660541</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770456</v>
+        <v>0.5421614591770734</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355524</v>
+        <v>0.8576025463354303</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556955</v>
+        <v>0.9547184906557896</v>
       </c>
       <c r="AM2">
-        <v>-10.8027716940335</v>
+        <v>-10.80277169402091</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155924</v>
+        <v>-108.0887396155916</v>
       </c>
       <c r="AO2">
-        <v>106.1949204558221</v>
+        <v>106.1949204558174</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013807</v>
+        <v>-10.80277169012548</v>
       </c>
       <c r="AQ2">
-        <v>-108.0887396163352</v>
+        <v>-108.0887396163344</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570496</v>
+        <v>106.1949204570448</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749132322555563E-10</v>
+        <v>8.749136534398527E-10</v>
       </c>
       <c r="O3">
-        <v>3.80067328859655E-10</v>
+        <v>3.800647285556335E-10</v>
       </c>
       <c r="P3">
-        <v>5.73902876806518E-11</v>
+        <v>5.739281036013081E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749193294456594E-10</v>
+        <v>-8.749208314622253E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800698709395421E-10</v>
+        <v>-3.800634866162073E-10</v>
       </c>
       <c r="S3">
-        <v>-5.739137342415921E-11</v>
+        <v>-5.739109393521982E-11</v>
       </c>
       <c r="T3">
-        <v>-3.72595606807671E-10</v>
+        <v>-3.725933994628982E-10</v>
       </c>
       <c r="U3">
-        <v>6.490175317117117E-10</v>
+        <v>6.490226546951254E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353109140262782E-10</v>
+        <v>-8.35319600020497E-10</v>
       </c>
       <c r="W3">
-        <v>3.725944825216923E-10</v>
+        <v>3.72593461858416E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490220434280273E-10</v>
+        <v>-6.490155814802528E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353105986947386E-10</v>
+        <v>8.353177438603103E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,40 +8946,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860884</v>
+        <v>0.5421614591861164</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422196</v>
+        <v>0.8576025463420974</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522741</v>
+        <v>0.9547184906523684</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770456</v>
+        <v>0.5421614591770734</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355524</v>
+        <v>0.8576025463354303</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556955</v>
+        <v>0.9547184906557896</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883958</v>
+        <v>-10.80277168882698</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165828</v>
+        <v>-108.0887396165819</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574587</v>
+        <v>106.194920457454</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013807</v>
+        <v>-10.80277169012548</v>
       </c>
       <c r="AQ3">
-        <v>-108.0887396163352</v>
+        <v>-108.0887396163344</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570496</v>
+        <v>106.1949204570448</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749137136088926E-10</v>
+        <v>8.749138941165208E-10</v>
       </c>
       <c r="O4">
-        <v>3.800682166461718E-10</v>
+        <v>3.800714864321599E-10</v>
       </c>
       <c r="P4">
-        <v>5.739154902042314E-11</v>
+        <v>5.739263476962603E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749150061165794E-10</v>
+        <v>-8.749213128155619E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800663052246517E-10</v>
+        <v>-3.800663828490042E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739263476393044E-11</v>
+        <v>-5.738857125567739E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725930841281287E-10</v>
+        <v>-3.725921381231271E-10</v>
       </c>
       <c r="U4">
-        <v>6.490300626477283E-10</v>
+        <v>6.490204473505258E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353152570233439E-10</v>
+        <v>-8.353149416884882E-10</v>
       </c>
       <c r="W4">
-        <v>3.725897357957056E-10</v>
+        <v>3.725909391788736E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490274817464707E-10</v>
+        <v>-6.490146354754245E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353149416918045E-10</v>
+        <v>8.353090578661785E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,40 +9077,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860883</v>
+        <v>0.5421614591861161</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422197</v>
+        <v>0.8576025463420975</v>
       </c>
       <c r="AI4">
-        <v>0.9547184906522741</v>
+        <v>0.9547184906523681</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770456</v>
+        <v>0.5421614591770734</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355524</v>
+        <v>0.8576025463354303</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556955</v>
+        <v>0.9547184906557896</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883959</v>
+        <v>-10.802771688827</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165828</v>
+        <v>-108.0887396165819</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574587</v>
+        <v>106.194920457454</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013807</v>
+        <v>-10.80277169012548</v>
       </c>
       <c r="AQ4">
-        <v>-108.0887396163352</v>
+        <v>-108.0887396163344</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570496</v>
+        <v>106.1949204570448</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957816732110378E-09</v>
+        <v>-2.957781994464525E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394446298278075E-10</v>
+        <v>-7.394394191830601E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229307E-10</v>
+        <v>-7.39467209943885E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957809784644703E-09</v>
+        <v>2.957771573234284E-09</v>
       </c>
       <c r="R2">
-        <v>7.394602622124364E-10</v>
+        <v>7.394481040385746E-10</v>
       </c>
       <c r="S2">
-        <v>7.394359465087787E-10</v>
+        <v>7.394533153297392E-10</v>
       </c>
       <c r="T2">
-        <v>-1.042137030931978E-14</v>
+        <v>1.389498238325033E-14</v>
       </c>
       <c r="U2">
-        <v>3.842270187909004E-09</v>
+        <v>3.842270187909246E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875855E-09</v>
+        <v>-3.842254560405994E-09</v>
       </c>
       <c r="W2">
-        <v>1.042144229410172E-14</v>
+        <v>-1.042114583877587E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842261502993705E-09</v>
+        <v>-3.842273661169912E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842240665850613E-09</v>
+        <v>3.84226150843902E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947107</v>
+        <v>0.7333333491946505</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874841</v>
+        <v>0.3666666743875433</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807219</v>
+        <v>0.3666666748072793</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104415</v>
+        <v>0.7333333492103802</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489795</v>
+        <v>0.3666666743490395</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614525</v>
+        <v>0.3666666748615141</v>
       </c>
       <c r="AM2">
-        <v>1.484321916958654E-09</v>
+        <v>1.469519195256854E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988595</v>
+        <v>-179.99999999883</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981706</v>
+        <v>-179.999999998141</v>
       </c>
       <c r="AP2">
-        <v>2.878739407962466E-09</v>
+        <v>2.863938318953018E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910789</v>
+        <v>-179.9999999910495</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968233</v>
+        <v>179.9999999968529</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859273315164545E-10</v>
+        <v>9.859169102226879E-10</v>
       </c>
       <c r="O3">
-        <v>2.464722801011617E-10</v>
+        <v>2.464774907486982E-10</v>
       </c>
       <c r="P3">
-        <v>2.465018073160266E-10</v>
+        <v>2.464844384925907E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859412265676501E-10</v>
+        <v>-9.859203839802007E-10</v>
       </c>
       <c r="R3">
-        <v>-2.46463595640421E-10</v>
+        <v>-2.464688062879544E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465018072666827E-10</v>
+        <v>-2.464983335015005E-10</v>
       </c>
       <c r="T3">
-        <v>-1.042123614876811E-14</v>
+        <v>5.727935820893819E-20</v>
       </c>
       <c r="U3">
-        <v>-1.280747465706892E-09</v>
+        <v>-1.280754413236092E-09</v>
       </c>
       <c r="V3">
-        <v>1.280735309457645E-09</v>
+        <v>1.280749204516243E-09</v>
       </c>
       <c r="W3">
-        <v>1.736877326861754E-14</v>
+        <v>1.042124440205973E-14</v>
       </c>
       <c r="X3">
-        <v>1.280756150174278E-09</v>
+        <v>1.280743991998405E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280735309401658E-09</v>
+        <v>-1.280749204460254E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,40 +9486,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156846</v>
+        <v>0.7333333492156233</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361449</v>
+        <v>0.3666666743362048</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795306</v>
+        <v>0.366666674879592</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104415</v>
+        <v>0.7333333492103802</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489795</v>
+        <v>0.3666666743490395</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614525</v>
+        <v>0.3666666748615141</v>
       </c>
       <c r="AM3">
-        <v>3.343550946905185E-09</v>
+        <v>3.328744486032581E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.999999988456</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951595</v>
+        <v>179.9999999951891</v>
       </c>
       <c r="AP3">
-        <v>2.878739407962466E-09</v>
+        <v>2.863938318953018E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910789</v>
+        <v>-179.9999999910495</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968233</v>
+        <v>179.9999999968529</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859238577518932E-10</v>
+        <v>9.859030151644433E-10</v>
       </c>
       <c r="O4">
-        <v>2.464861751593974E-10</v>
+        <v>2.464774907486961E-10</v>
       </c>
       <c r="P4">
-        <v>2.464809647286467E-10</v>
+        <v>2.464844384925915E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859273315094055E-10</v>
+        <v>-9.859169102156397E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464705431695385E-10</v>
+        <v>-2.464688062879544E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084296E-10</v>
+        <v>-2.464913859723733E-10</v>
       </c>
       <c r="T4">
-        <v>-3.473707026605787E-15</v>
+        <v>5.727864905862164E-20</v>
       </c>
       <c r="U4">
-        <v>-1.280754413236007E-09</v>
+        <v>-1.280747465706975E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515901E-09</v>
+        <v>1.280749204516243E-09</v>
       </c>
       <c r="W4">
-        <v>1.042124414702096E-14</v>
+        <v>1.042124440223337E-14</v>
       </c>
       <c r="X4">
-        <v>1.280756150174277E-09</v>
+        <v>1.280743991998405E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.28075615198904E-09</v>
+        <v>-1.280749204460255E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,40 +9617,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156848</v>
+        <v>0.7333333492156232</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361447</v>
+        <v>0.3666666743362049</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795305</v>
+        <v>0.3666666748795921</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104415</v>
+        <v>0.7333333492103802</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489795</v>
+        <v>0.3666666743490395</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614525</v>
+        <v>0.3666666748615141</v>
       </c>
       <c r="AM4">
-        <v>3.343552147087282E-09</v>
+        <v>3.328750188194203E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884561</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951594</v>
+        <v>179.999999995189</v>
       </c>
       <c r="AP4">
-        <v>2.878739407962466E-09</v>
+        <v>2.863938318953018E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910789</v>
+        <v>-179.9999999910495</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968233</v>
+        <v>179.9999999968529</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957816732110378E-09</v>
+        <v>-2.957781994464525E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394446298278075E-10</v>
+        <v>-7.394394191830601E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229307E-10</v>
+        <v>-7.39467209943885E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957809784644703E-09</v>
+        <v>2.957771573234284E-09</v>
       </c>
       <c r="R2">
-        <v>7.394602622124364E-10</v>
+        <v>7.394481040385746E-10</v>
       </c>
       <c r="S2">
-        <v>7.394359465087787E-10</v>
+        <v>7.394533153297392E-10</v>
       </c>
       <c r="T2">
-        <v>-1.042137030931978E-14</v>
+        <v>1.389498238325033E-14</v>
       </c>
       <c r="U2">
-        <v>3.842270187909004E-09</v>
+        <v>3.842270187909246E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875855E-09</v>
+        <v>-3.842254560405994E-09</v>
       </c>
       <c r="W2">
-        <v>1.042144229410172E-14</v>
+        <v>-1.042114583877587E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842261502993705E-09</v>
+        <v>-3.842273661169912E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842240665850613E-09</v>
+        <v>3.84226150843902E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947107</v>
+        <v>0.7333333491946505</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874841</v>
+        <v>0.3666666743875433</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807219</v>
+        <v>0.3666666748072793</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104415</v>
+        <v>0.7333333492103802</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489795</v>
+        <v>0.3666666743490395</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614525</v>
+        <v>0.3666666748615141</v>
       </c>
       <c r="AM2">
-        <v>1.484321916958654E-09</v>
+        <v>1.469519195256854E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988595</v>
+        <v>-179.99999999883</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981706</v>
+        <v>-179.999999998141</v>
       </c>
       <c r="AP2">
-        <v>2.878739407962466E-09</v>
+        <v>2.863938318953018E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910789</v>
+        <v>-179.9999999910495</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968233</v>
+        <v>179.9999999968529</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859273315164545E-10</v>
+        <v>9.859169102226879E-10</v>
       </c>
       <c r="O3">
-        <v>2.464722801011617E-10</v>
+        <v>2.464774907486982E-10</v>
       </c>
       <c r="P3">
-        <v>2.465018073160266E-10</v>
+        <v>2.464844384925907E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859412265676501E-10</v>
+        <v>-9.859203839802007E-10</v>
       </c>
       <c r="R3">
-        <v>-2.46463595640421E-10</v>
+        <v>-2.464688062879544E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465018072666827E-10</v>
+        <v>-2.464983335015005E-10</v>
       </c>
       <c r="T3">
-        <v>-1.042123614876811E-14</v>
+        <v>5.727935820893819E-20</v>
       </c>
       <c r="U3">
-        <v>-1.280747465706892E-09</v>
+        <v>-1.280754413236092E-09</v>
       </c>
       <c r="V3">
-        <v>1.280735309457645E-09</v>
+        <v>1.280749204516243E-09</v>
       </c>
       <c r="W3">
-        <v>1.736877326861754E-14</v>
+        <v>1.042124440205973E-14</v>
       </c>
       <c r="X3">
-        <v>1.280756150174278E-09</v>
+        <v>1.280743991998405E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280735309401658E-09</v>
+        <v>-1.280749204460254E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,40 +10026,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156846</v>
+        <v>0.7333333492156233</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361449</v>
+        <v>0.3666666743362048</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795306</v>
+        <v>0.366666674879592</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104415</v>
+        <v>0.7333333492103802</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489795</v>
+        <v>0.3666666743490395</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614525</v>
+        <v>0.3666666748615141</v>
       </c>
       <c r="AM3">
-        <v>3.343550946905185E-09</v>
+        <v>3.328744486032581E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.999999988456</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951595</v>
+        <v>179.9999999951891</v>
       </c>
       <c r="AP3">
-        <v>2.878739407962466E-09</v>
+        <v>2.863938318953018E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910789</v>
+        <v>-179.9999999910495</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968233</v>
+        <v>179.9999999968529</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859238577518932E-10</v>
+        <v>9.859030151644433E-10</v>
       </c>
       <c r="O4">
-        <v>2.464861751593974E-10</v>
+        <v>2.464774907486961E-10</v>
       </c>
       <c r="P4">
-        <v>2.464809647286467E-10</v>
+        <v>2.464844384925915E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859273315094055E-10</v>
+        <v>-9.859169102156397E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464705431695385E-10</v>
+        <v>-2.464688062879544E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084296E-10</v>
+        <v>-2.464913859723733E-10</v>
       </c>
       <c r="T4">
-        <v>-3.473707026605787E-15</v>
+        <v>5.727864905862164E-20</v>
       </c>
       <c r="U4">
-        <v>-1.280754413236007E-09</v>
+        <v>-1.280747465706975E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515901E-09</v>
+        <v>1.280749204516243E-09</v>
       </c>
       <c r="W4">
-        <v>1.042124414702096E-14</v>
+        <v>1.042124440223337E-14</v>
       </c>
       <c r="X4">
-        <v>1.280756150174277E-09</v>
+        <v>1.280743991998405E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.28075615198904E-09</v>
+        <v>-1.280749204460255E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,40 +10157,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156848</v>
+        <v>0.7333333492156232</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361447</v>
+        <v>0.3666666743362049</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795305</v>
+        <v>0.3666666748795921</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104415</v>
+        <v>0.7333333492103802</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489795</v>
+        <v>0.3666666743490395</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614525</v>
+        <v>0.3666666748615141</v>
       </c>
       <c r="AM4">
-        <v>3.343552147087282E-09</v>
+        <v>3.328750188194203E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884561</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951594</v>
+        <v>179.999999995189</v>
       </c>
       <c r="AP4">
-        <v>2.878739407962466E-09</v>
+        <v>2.863938318953018E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910789</v>
+        <v>-179.9999999910495</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968233</v>
+        <v>179.9999999968529</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272220835756515E-09</v>
+        <v>-2.2721764090224E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904145136558568E-09</v>
+        <v>-1.904139623677243E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488172733409E-09</v>
+        <v>-3.132514848273032E-09</v>
       </c>
       <c r="Q2">
-        <v>2.27221678976091E-09</v>
+        <v>2.272172363026793E-09</v>
       </c>
       <c r="R2">
-        <v>1.90414648472895E-09</v>
+        <v>1.904139623888265E-09</v>
       </c>
       <c r="S2">
-        <v>3.132486871255322E-09</v>
+        <v>3.132511591232562E-09</v>
       </c>
       <c r="T2">
-        <v>7.091805084808975E-10</v>
+        <v>7.092059154661672E-10</v>
       </c>
       <c r="U2">
-        <v>4.34930660612619E-09</v>
+        <v>4.349312720361517E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033357844300466E-10</v>
+        <v>-8.033224618041276E-10</v>
       </c>
       <c r="W2">
-        <v>-7.09180230809044E-10</v>
+        <v>-7.092056377943141E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349309350223411E-09</v>
+        <v>-4.349312720122093E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033374102664792E-10</v>
+        <v>8.033331934068182E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503104</v>
+        <v>0.8561498316502878</v>
       </c>
       <c r="AH2">
-        <v>0.64545978590385</v>
+        <v>0.6454597859039354</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143195</v>
+        <v>0.4396365303142383</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569962</v>
+        <v>0.8561498316569724</v>
       </c>
       <c r="AK2">
-        <v>0.645459785885538</v>
+        <v>0.6454597858856239</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501931</v>
+        <v>0.4396365303501123</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880233</v>
+        <v>-3.925473815889083</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488054</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510051</v>
+        <v>128.685835551019</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878113</v>
+        <v>-3.925473814886975</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453139</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541854</v>
+        <v>128.6858355541994</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573813204358079E-10</v>
+        <v>7.573911578624803E-10</v>
       </c>
       <c r="O3">
-        <v>6.347040682667119E-10</v>
+        <v>6.347040924759884E-10</v>
       </c>
       <c r="P3">
-        <v>1.044165755555359E-09</v>
+        <v>1.044172911816432E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573929032344144E-10</v>
+        <v>-7.57387111833379E-10</v>
       </c>
       <c r="R3">
-        <v>-6.346973284464594E-10</v>
+        <v>-6.347040924525418E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044167057221015E-09</v>
+        <v>-1.044164459900021E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363917444399811E-10</v>
+        <v>-2.363964845599684E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774260439763E-09</v>
+        <v>-1.449770842123526E-09</v>
       </c>
       <c r="V3">
-        <v>2.677881365981987E-10</v>
+        <v>2.67785863185577E-10</v>
       </c>
       <c r="W3">
-        <v>2.364006694082352E-10</v>
+        <v>2.363962069261189E-10</v>
       </c>
       <c r="X3">
-        <v>1.449760538783118E-09</v>
+        <v>1.449770842150128E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677865109745847E-10</v>
+        <v>-2.677764274273476E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,40 +10566,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592244</v>
+        <v>0.8561498316592007</v>
       </c>
       <c r="AH3">
-        <v>0.645459785879434</v>
+        <v>0.64545978587952</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621511</v>
+        <v>0.4396365303620703</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569962</v>
+        <v>0.8561498316569724</v>
       </c>
       <c r="AK3">
-        <v>0.645459785885538</v>
+        <v>0.6454597858856239</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501931</v>
+        <v>0.4396365303501123</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544075</v>
+        <v>-3.925473814552937</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441501</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552454</v>
+        <v>128.6858355552595</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878113</v>
+        <v>-3.925473814886975</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453139</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541854</v>
+        <v>128.6858355541994</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.574009952892676E-10</v>
+        <v>7.573952038882322E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758643E-10</v>
+        <v>6.347095811492869E-10</v>
       </c>
       <c r="P4">
-        <v>1.044170962311769E-09</v>
+        <v>1.044169012806592E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573969492601663E-10</v>
+        <v>-7.57391157859131E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347027202839042E-10</v>
+        <v>-6.347095811258404E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044172263977425E-09</v>
+        <v>-1.044164459900021E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364012246797346E-10</v>
+        <v>-2.363967621976184E-10</v>
       </c>
       <c r="U4">
-        <v>-1.44975789125572E-09</v>
+        <v>-1.449768146204803E-09</v>
       </c>
       <c r="V4">
-        <v>2.67781634210154E-10</v>
+        <v>2.677774052351445E-10</v>
       </c>
       <c r="W4">
-        <v>2.364009470458851E-10</v>
+        <v>2.363964845637688E-10</v>
       </c>
       <c r="X4">
-        <v>1.449771516129716E-09</v>
+        <v>1.449768146231406E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.6778000858654E-10</v>
+        <v>-2.677764274273476E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,40 +10697,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592245</v>
+        <v>0.8561498316592006</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794339</v>
+        <v>0.64545978587952</v>
       </c>
       <c r="AI4">
-        <v>0.439636530362151</v>
+        <v>0.4396365303620703</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569962</v>
+        <v>0.8561498316569724</v>
       </c>
       <c r="AK4">
-        <v>0.645459785885538</v>
+        <v>0.6454597858856239</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501931</v>
+        <v>0.4396365303501123</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544072</v>
+        <v>-3.925473814552934</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441501</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552455</v>
+        <v>128.6858355552595</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878113</v>
+        <v>-3.925473814886975</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453139</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541854</v>
+        <v>128.6858355541994</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272220835756515E-09</v>
+        <v>-2.2721764090224E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904145136558568E-09</v>
+        <v>-1.904139623677243E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488172733409E-09</v>
+        <v>-3.132514848273032E-09</v>
       </c>
       <c r="Q2">
-        <v>2.27221678976091E-09</v>
+        <v>2.272172363026793E-09</v>
       </c>
       <c r="R2">
-        <v>1.90414648472895E-09</v>
+        <v>1.904139623888265E-09</v>
       </c>
       <c r="S2">
-        <v>3.132486871255322E-09</v>
+        <v>3.132511591232562E-09</v>
       </c>
       <c r="T2">
-        <v>7.091805084808975E-10</v>
+        <v>7.092059154661672E-10</v>
       </c>
       <c r="U2">
-        <v>4.34930660612619E-09</v>
+        <v>4.349312720361517E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033357844300466E-10</v>
+        <v>-8.033224618041276E-10</v>
       </c>
       <c r="W2">
-        <v>-7.09180230809044E-10</v>
+        <v>-7.092056377943141E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349309350223411E-09</v>
+        <v>-4.349312720122093E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033374102664792E-10</v>
+        <v>8.033331934068182E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503104</v>
+        <v>0.8561498316502878</v>
       </c>
       <c r="AH2">
-        <v>0.64545978590385</v>
+        <v>0.6454597859039354</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143195</v>
+        <v>0.4396365303142383</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569962</v>
+        <v>0.8561498316569724</v>
       </c>
       <c r="AK2">
-        <v>0.645459785885538</v>
+        <v>0.6454597858856239</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501931</v>
+        <v>0.4396365303501123</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880233</v>
+        <v>-3.925473815889083</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488054</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510051</v>
+        <v>128.685835551019</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878113</v>
+        <v>-3.925473814886975</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453139</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541854</v>
+        <v>128.6858355541994</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573813204358079E-10</v>
+        <v>7.573911578624803E-10</v>
       </c>
       <c r="O3">
-        <v>6.347040682667119E-10</v>
+        <v>6.347040924759884E-10</v>
       </c>
       <c r="P3">
-        <v>1.044165755555359E-09</v>
+        <v>1.044172911816432E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573929032344144E-10</v>
+        <v>-7.57387111833379E-10</v>
       </c>
       <c r="R3">
-        <v>-6.346973284464594E-10</v>
+        <v>-6.347040924525418E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044167057221015E-09</v>
+        <v>-1.044164459900021E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363917444399811E-10</v>
+        <v>-2.363964845599684E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774260439763E-09</v>
+        <v>-1.449770842123526E-09</v>
       </c>
       <c r="V3">
-        <v>2.677881365981987E-10</v>
+        <v>2.67785863185577E-10</v>
       </c>
       <c r="W3">
-        <v>2.364006694082352E-10</v>
+        <v>2.363962069261189E-10</v>
       </c>
       <c r="X3">
-        <v>1.449760538783118E-09</v>
+        <v>1.449770842150128E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677865109745847E-10</v>
+        <v>-2.677764274273476E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,40 +11106,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592244</v>
+        <v>0.8561498316592007</v>
       </c>
       <c r="AH3">
-        <v>0.645459785879434</v>
+        <v>0.64545978587952</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621511</v>
+        <v>0.4396365303620703</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569962</v>
+        <v>0.8561498316569724</v>
       </c>
       <c r="AK3">
-        <v>0.645459785885538</v>
+        <v>0.6454597858856239</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501931</v>
+        <v>0.4396365303501123</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544075</v>
+        <v>-3.925473814552937</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441501</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552454</v>
+        <v>128.6858355552595</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878113</v>
+        <v>-3.925473814886975</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453139</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541854</v>
+        <v>128.6858355541994</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.574009952892676E-10</v>
+        <v>7.573952038882322E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758643E-10</v>
+        <v>6.347095811492869E-10</v>
       </c>
       <c r="P4">
-        <v>1.044170962311769E-09</v>
+        <v>1.044169012806592E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573969492601663E-10</v>
+        <v>-7.57391157859131E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347027202839042E-10</v>
+        <v>-6.347095811258404E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044172263977425E-09</v>
+        <v>-1.044164459900021E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364012246797346E-10</v>
+        <v>-2.363967621976184E-10</v>
       </c>
       <c r="U4">
-        <v>-1.44975789125572E-09</v>
+        <v>-1.449768146204803E-09</v>
       </c>
       <c r="V4">
-        <v>2.67781634210154E-10</v>
+        <v>2.677774052351445E-10</v>
       </c>
       <c r="W4">
-        <v>2.364009470458851E-10</v>
+        <v>2.363964845637688E-10</v>
       </c>
       <c r="X4">
-        <v>1.449771516129716E-09</v>
+        <v>1.449768146231406E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.6778000858654E-10</v>
+        <v>-2.677764274273476E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,40 +11237,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592245</v>
+        <v>0.8561498316592006</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794339</v>
+        <v>0.64545978587952</v>
       </c>
       <c r="AI4">
-        <v>0.439636530362151</v>
+        <v>0.4396365303620703</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569962</v>
+        <v>0.8561498316569724</v>
       </c>
       <c r="AK4">
-        <v>0.645459785885538</v>
+        <v>0.6454597858856239</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501931</v>
+        <v>0.4396365303501123</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544072</v>
+        <v>-3.925473814552934</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441501</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552455</v>
+        <v>128.6858355552595</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878113</v>
+        <v>-3.925473814886975</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453139</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541854</v>
+        <v>128.6858355541994</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444453331098292E-09</v>
+        <v>-2.444447015162919E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111117535913225E-10</v>
+        <v>-6.111157010509234E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111030697888808E-10</v>
+        <v>-6.11110964708165E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444443857295823E-09</v>
+        <v>2.444437541360446E-09</v>
       </c>
       <c r="R2">
-        <v>6.111101753121606E-10</v>
+        <v>6.111204387071752E-10</v>
       </c>
       <c r="S2">
-        <v>6.111046494774447E-10</v>
+        <v>6.111109654128717E-10</v>
       </c>
       <c r="T2">
-        <v>-6.315933881768883E-15</v>
+        <v>-1.578983703151381E-14</v>
       </c>
       <c r="U2">
-        <v>3.1754123265402E-09</v>
+        <v>3.175393378733789E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175421803580863E-09</v>
+        <v>-3.175409171709857E-09</v>
       </c>
       <c r="W2">
-        <v>9.47396108957362E-15</v>
+        <v>1.57898965257711E-14</v>
       </c>
       <c r="X2">
-        <v>-3.175415484091472E-09</v>
+        <v>-3.175391799333504E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175418646029582E-09</v>
+        <v>3.175409172126296E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,40 +11515,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635011</v>
+        <v>0.6666666666635161</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670316</v>
+        <v>0.3333333331670174</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964834</v>
+        <v>0.3333333334964689</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909575</v>
+        <v>0.666666666690972</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386057</v>
+        <v>0.3333333331385926</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523646</v>
+        <v>0.3333333335523508</v>
       </c>
       <c r="AM2">
-        <v>-3.626449776782258E-11</v>
+        <v>-3.611641970507023E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981416</v>
+        <v>-179.9999999981418</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980553</v>
+        <v>179.9999999980549</v>
       </c>
       <c r="AP2">
-        <v>1.358201581584545E-09</v>
+        <v>1.358368892163726E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844861</v>
+        <v>-179.9999999844865</v>
       </c>
       <c r="AR2">
-        <v>179.9999999871885</v>
+        <v>179.9999999871881</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125137979837E-10</v>
+        <v>8.148125137980011E-10</v>
       </c>
       <c r="O3">
-        <v>2.037039181769758E-10</v>
+        <v>2.037031286850262E-10</v>
       </c>
       <c r="P3">
-        <v>2.037031288879743E-10</v>
+        <v>2.03701549904115E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188297222271E-10</v>
+        <v>-8.148188297222445E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037054970825295E-10</v>
+        <v>-2.037015496228723E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037015498258154E-10</v>
+        <v>-2.037015498258133E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941789282717E-15</v>
+        <v>-3.157941786770937E-15</v>
       </c>
       <c r="U3">
-        <v>-1.058481301887357E-09</v>
+        <v>-1.058465512048755E-09</v>
       </c>
       <c r="V3">
-        <v>1.058478145335659E-09</v>
+        <v>1.058478145335615E-09</v>
       </c>
       <c r="W3">
-        <v>6.31591611385551E-15</v>
+        <v>-3.157987032337125E-15</v>
       </c>
       <c r="X3">
-        <v>1.058474985998203E-09</v>
+        <v>1.058470249046595E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058474987321672E-09</v>
+        <v>-1.05847182935391E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11646,40 +11646,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001095</v>
+        <v>0.6666666667001238</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291303</v>
+        <v>0.3333333331291174</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709917</v>
+        <v>0.3333333335709781</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909575</v>
+        <v>0.666666666690972</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386057</v>
+        <v>0.3333333331385926</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523646</v>
+        <v>0.3333333335523508</v>
       </c>
       <c r="AM3">
-        <v>1.823013237567583E-09</v>
+        <v>1.823189865064192E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799342</v>
+        <v>-179.9999999799346</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835662</v>
+        <v>179.9999999835658</v>
       </c>
       <c r="AP3">
-        <v>1.358201581584545E-09</v>
+        <v>1.358368892163726E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844861</v>
+        <v>-179.9999999844865</v>
       </c>
       <c r="AR3">
-        <v>179.9999999871885</v>
+        <v>179.9999999871881</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148093558302686E-10</v>
+        <v>8.14809355830286E-10</v>
       </c>
       <c r="O4">
-        <v>2.037070761446875E-10</v>
+        <v>2.037094446204544E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879713E-10</v>
+        <v>2.037015499041119E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156717545124E-10</v>
+        <v>-8.148125137868153E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037054970825286E-10</v>
+        <v>-2.037078655582984E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037078657612471E-10</v>
+        <v>-2.037047077935299E-10</v>
       </c>
       <c r="T4">
-        <v>2.592482428738848E-20</v>
+        <v>6.315961356474655E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058474985951931E-09</v>
+        <v>-1.058468670016466E-09</v>
       </c>
       <c r="V4">
-        <v>1.058471829400227E-09</v>
+        <v>1.058471829400182E-09</v>
       </c>
       <c r="W4">
-        <v>-1.931527842856574E-20</v>
+        <v>-6.315954746791854E-15</v>
       </c>
       <c r="X4">
-        <v>1.05847182803049E-09</v>
+        <v>1.058473407014306E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386237E-09</v>
+        <v>-1.05847182935391E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,40 +11777,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001093</v>
+        <v>0.6666666667001236</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291307</v>
+        <v>0.3333333331291177</v>
       </c>
       <c r="AI4">
-        <v>0.333333333570992</v>
+        <v>0.3333333335709783</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909575</v>
+        <v>0.666666666690972</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386057</v>
+        <v>0.3333333331385926</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523646</v>
+        <v>0.3333333335523508</v>
       </c>
       <c r="AM4">
-        <v>1.822982278808012E-09</v>
+        <v>1.823147858843599E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799341</v>
+        <v>-179.9999999799345</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835663</v>
+        <v>179.9999999835659</v>
       </c>
       <c r="AP4">
-        <v>1.358201581584545E-09</v>
+        <v>1.358368892163726E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844861</v>
+        <v>-179.9999999844865</v>
       </c>
       <c r="AR4">
-        <v>179.9999999871885</v>
+        <v>179.9999999871881</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444453331098292E-09</v>
+        <v>-2.444447015162919E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111117535913225E-10</v>
+        <v>-6.111157010509234E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111030697888808E-10</v>
+        <v>-6.11110964708165E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444443857295823E-09</v>
+        <v>2.444437541360446E-09</v>
       </c>
       <c r="R2">
-        <v>6.111101753121606E-10</v>
+        <v>6.111204387071752E-10</v>
       </c>
       <c r="S2">
-        <v>6.111046494774447E-10</v>
+        <v>6.111109654128717E-10</v>
       </c>
       <c r="T2">
-        <v>-6.315933881768883E-15</v>
+        <v>-1.578983703151381E-14</v>
       </c>
       <c r="U2">
-        <v>3.1754123265402E-09</v>
+        <v>3.175393378733789E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175421803580863E-09</v>
+        <v>-3.175409171709857E-09</v>
       </c>
       <c r="W2">
-        <v>9.47396108957362E-15</v>
+        <v>1.57898965257711E-14</v>
       </c>
       <c r="X2">
-        <v>-3.175415484091472E-09</v>
+        <v>-3.175391799333504E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175418646029582E-09</v>
+        <v>3.175409172126296E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,40 +12280,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635011</v>
+        <v>0.6666666666635161</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670316</v>
+        <v>0.3333333331670174</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964834</v>
+        <v>0.3333333334964689</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909575</v>
+        <v>0.666666666690972</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386057</v>
+        <v>0.3333333331385926</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523646</v>
+        <v>0.3333333335523508</v>
       </c>
       <c r="AM2">
-        <v>-3.626449776782258E-11</v>
+        <v>-3.611641970507023E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981416</v>
+        <v>-179.9999999981418</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980553</v>
+        <v>179.9999999980549</v>
       </c>
       <c r="AP2">
-        <v>1.358201581584545E-09</v>
+        <v>1.358368892163726E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844861</v>
+        <v>-179.9999999844865</v>
       </c>
       <c r="AR2">
-        <v>179.9999999871885</v>
+        <v>179.9999999871881</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125137979837E-10</v>
+        <v>8.148125137980011E-10</v>
       </c>
       <c r="O3">
-        <v>2.037039181769758E-10</v>
+        <v>2.037031286850262E-10</v>
       </c>
       <c r="P3">
-        <v>2.037031288879743E-10</v>
+        <v>2.03701549904115E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188297222271E-10</v>
+        <v>-8.148188297222445E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037054970825295E-10</v>
+        <v>-2.037015496228723E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037015498258154E-10</v>
+        <v>-2.037015498258133E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941789282717E-15</v>
+        <v>-3.157941786770937E-15</v>
       </c>
       <c r="U3">
-        <v>-1.058481301887357E-09</v>
+        <v>-1.058465512048755E-09</v>
       </c>
       <c r="V3">
-        <v>1.058478145335659E-09</v>
+        <v>1.058478145335615E-09</v>
       </c>
       <c r="W3">
-        <v>6.31591611385551E-15</v>
+        <v>-3.157987032337125E-15</v>
       </c>
       <c r="X3">
-        <v>1.058474985998203E-09</v>
+        <v>1.058470249046595E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058474987321672E-09</v>
+        <v>-1.05847182935391E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12411,40 +12411,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001095</v>
+        <v>0.6666666667001238</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291303</v>
+        <v>0.3333333331291174</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709917</v>
+        <v>0.3333333335709781</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909575</v>
+        <v>0.666666666690972</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386057</v>
+        <v>0.3333333331385926</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523646</v>
+        <v>0.3333333335523508</v>
       </c>
       <c r="AM3">
-        <v>1.823013237567583E-09</v>
+        <v>1.823189865064192E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799342</v>
+        <v>-179.9999999799346</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835662</v>
+        <v>179.9999999835658</v>
       </c>
       <c r="AP3">
-        <v>1.358201581584545E-09</v>
+        <v>1.358368892163726E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844861</v>
+        <v>-179.9999999844865</v>
       </c>
       <c r="AR3">
-        <v>179.9999999871885</v>
+        <v>179.9999999871881</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148093558302686E-10</v>
+        <v>8.14809355830286E-10</v>
       </c>
       <c r="O4">
-        <v>2.037070761446875E-10</v>
+        <v>2.037094446204544E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879713E-10</v>
+        <v>2.037015499041119E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156717545124E-10</v>
+        <v>-8.148125137868153E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037054970825286E-10</v>
+        <v>-2.037078655582984E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037078657612471E-10</v>
+        <v>-2.037047077935299E-10</v>
       </c>
       <c r="T4">
-        <v>2.592482428738848E-20</v>
+        <v>6.315961356474655E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058474985951931E-09</v>
+        <v>-1.058468670016466E-09</v>
       </c>
       <c r="V4">
-        <v>1.058471829400227E-09</v>
+        <v>1.058471829400182E-09</v>
       </c>
       <c r="W4">
-        <v>-1.931527842856574E-20</v>
+        <v>-6.315954746791854E-15</v>
       </c>
       <c r="X4">
-        <v>1.05847182803049E-09</v>
+        <v>1.058473407014306E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386237E-09</v>
+        <v>-1.05847182935391E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,40 +12542,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001093</v>
+        <v>0.6666666667001236</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291307</v>
+        <v>0.3333333331291177</v>
       </c>
       <c r="AI4">
-        <v>0.333333333570992</v>
+        <v>0.3333333335709783</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909575</v>
+        <v>0.666666666690972</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386057</v>
+        <v>0.3333333331385926</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523646</v>
+        <v>0.3333333335523508</v>
       </c>
       <c r="AM4">
-        <v>1.822982278808012E-09</v>
+        <v>1.823147858843599E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799341</v>
+        <v>-179.9999999799345</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835663</v>
+        <v>179.9999999835659</v>
       </c>
       <c r="AP4">
-        <v>1.358201581584545E-09</v>
+        <v>1.358368892163726E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844861</v>
+        <v>-179.9999999844865</v>
       </c>
       <c r="AR4">
-        <v>179.9999999871885</v>
+        <v>179.9999999871881</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.9416747209887E-09</v>
+        <v>-1.941668729826464E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538339570220734E-09</v>
+        <v>-1.538344375964567E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506370638324422E-09</v>
+        <v>-2.506372109494181E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941671091224978E-09</v>
+        <v>1.941662137024403E-09</v>
       </c>
       <c r="R2">
-        <v>1.538344946499066E-09</v>
+        <v>1.538345882788768E-09</v>
       </c>
       <c r="S2">
-        <v>2.506371233492977E-09</v>
+        <v>2.506372109857016E-09</v>
       </c>
       <c r="T2">
-        <v>5.588848233461576E-10</v>
+        <v>5.58878957438788E-10</v>
       </c>
       <c r="U2">
-        <v>3.623733939531792E-09</v>
+        <v>3.623702351361631E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292829832412996E-10</v>
+        <v>-8.292758921960379E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588845826388582E-10</v>
+        <v>-5.588821660395433E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623734444794419E-09</v>
+        <v>-3.623694315909899E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29282310338213E-10</v>
+        <v>8.292758924104503E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,40 +12820,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099286</v>
+        <v>0.7679592756099378</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825734</v>
+        <v>0.5655462792825902</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706201</v>
+        <v>0.3792589156705777</v>
       </c>
       <c r="AJ2">
-        <v>0.767959275625641</v>
+        <v>0.7679592756256494</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745879</v>
+        <v>0.5655462792746054</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297808</v>
+        <v>0.3792589157297394</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611533</v>
+        <v>-3.793471525615338</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097137</v>
+        <v>-155.6266320097088</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130511</v>
+        <v>131.4656840130556</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370235</v>
+        <v>-3.793471524374021</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036335</v>
+        <v>-155.6266320036287</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149953</v>
+        <v>131.4656840149999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472201474907508E-10</v>
+        <v>6.472226291757449E-10</v>
       </c>
       <c r="O3">
-        <v>5.127810521153075E-10</v>
+        <v>5.1278448333412E-10</v>
       </c>
       <c r="P3">
-        <v>8.354607722469701E-10</v>
+        <v>8.354595509469825E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472201474849915E-10</v>
+        <v>-6.472252311933195E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127778872761309E-10</v>
+        <v>-5.127807657157833E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066555E-10</v>
+        <v>-8.354601457123941E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862934102610287E-10</v>
+        <v>-1.862972205841317E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207900967951644E-09</v>
+        <v>-1.207905295580687E-09</v>
       </c>
       <c r="V3">
-        <v>2.76432299664729E-10</v>
+        <v>2.764228293964935E-10</v>
       </c>
       <c r="W3">
-        <v>1.862934102644321E-10</v>
+        <v>1.86299216002815E-10</v>
       </c>
       <c r="X3">
-        <v>1.207905342906634E-09</v>
+        <v>1.207908450433624E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409052E-10</v>
+        <v>-2.764221562551749E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308784</v>
+        <v>0.7679592756308865</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719262</v>
+        <v>0.5655462792719437</v>
       </c>
       <c r="AI3">
-        <v>0.379258915749501</v>
+        <v>0.3792589157494597</v>
       </c>
       <c r="AJ3">
-        <v>0.767959275625641</v>
+        <v>0.7679592756256494</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745879</v>
+        <v>0.5655462792746054</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297808</v>
+        <v>0.3792589157297394</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956479</v>
+        <v>-3.793471523960253</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016068</v>
+        <v>-155.626632001602</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156434</v>
+        <v>131.465684015648</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370235</v>
+        <v>-3.793471524374021</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036335</v>
+        <v>-155.6266320036287</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149953</v>
+        <v>131.4656840149999</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472167583518617E-10</v>
+        <v>6.472189993601875E-10</v>
       </c>
       <c r="O4">
-        <v>5.127810521153077E-10</v>
+        <v>5.127818140425539E-10</v>
       </c>
       <c r="P4">
-        <v>8.354631514698747E-10</v>
+        <v>8.354583613355293E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472167583461026E-10</v>
+        <v>-6.472217217160965E-10</v>
       </c>
       <c r="R4">
-        <v>-5.12782309509415E-10</v>
+        <v>-5.127854170365301E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354604589595814E-10</v>
+        <v>-8.354583612952155E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862895397688034E-10</v>
+        <v>-1.862969799074637E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207900967951644E-09</v>
+        <v>-1.207912387105539E-09</v>
       </c>
       <c r="V4">
-        <v>2.764296071947507E-10</v>
+        <v>2.764241756314833E-10</v>
       </c>
       <c r="W4">
-        <v>1.862895397722066E-10</v>
+        <v>1.862971604183681E-10</v>
       </c>
       <c r="X4">
-        <v>1.207915103723053E-09</v>
+        <v>1.207912225283513E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764272279480217E-10</v>
+        <v>-2.764241756076589E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308784</v>
+        <v>0.7679592756308864</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719265</v>
+        <v>0.565546279271944</v>
       </c>
       <c r="AI4">
-        <v>0.379258915749501</v>
+        <v>0.3792589157494594</v>
       </c>
       <c r="AJ4">
-        <v>0.767959275625641</v>
+        <v>0.7679592756256494</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745879</v>
+        <v>0.5655462792746054</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297808</v>
+        <v>0.3792589157297394</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956493</v>
+        <v>-3.793471523960281</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016068</v>
+        <v>-155.6266320016019</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156435</v>
+        <v>131.4656840156481</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370235</v>
+        <v>-3.793471524374021</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036335</v>
+        <v>-155.6266320036287</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149953</v>
+        <v>131.4656840149999</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.9416747209887E-09</v>
+        <v>-1.941668729826464E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538339570220734E-09</v>
+        <v>-1.538344375964567E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506370638324422E-09</v>
+        <v>-2.506372109494181E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941671091224978E-09</v>
+        <v>1.941662137024403E-09</v>
       </c>
       <c r="R2">
-        <v>1.538344946499066E-09</v>
+        <v>1.538345882788768E-09</v>
       </c>
       <c r="S2">
-        <v>2.506371233492977E-09</v>
+        <v>2.506372109857016E-09</v>
       </c>
       <c r="T2">
-        <v>5.588848233461576E-10</v>
+        <v>5.58878957438788E-10</v>
       </c>
       <c r="U2">
-        <v>3.623733939531792E-09</v>
+        <v>3.623702351361631E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292829832412996E-10</v>
+        <v>-8.292758921960379E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588845826388582E-10</v>
+        <v>-5.588821660395433E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623734444794419E-09</v>
+        <v>-3.623694315909899E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29282310338213E-10</v>
+        <v>8.292758924104503E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,40 +13360,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099286</v>
+        <v>0.7679592756099378</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825734</v>
+        <v>0.5655462792825902</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706201</v>
+        <v>0.3792589156705777</v>
       </c>
       <c r="AJ2">
-        <v>0.767959275625641</v>
+        <v>0.7679592756256494</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745879</v>
+        <v>0.5655462792746054</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297808</v>
+        <v>0.3792589157297394</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611533</v>
+        <v>-3.793471525615338</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097137</v>
+        <v>-155.6266320097088</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130511</v>
+        <v>131.4656840130556</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370235</v>
+        <v>-3.793471524374021</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036335</v>
+        <v>-155.6266320036287</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149953</v>
+        <v>131.4656840149999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472201474907508E-10</v>
+        <v>6.472226291757449E-10</v>
       </c>
       <c r="O3">
-        <v>5.127810521153075E-10</v>
+        <v>5.1278448333412E-10</v>
       </c>
       <c r="P3">
-        <v>8.354607722469701E-10</v>
+        <v>8.354595509469825E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472201474849915E-10</v>
+        <v>-6.472252311933195E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127778872761309E-10</v>
+        <v>-5.127807657157833E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066555E-10</v>
+        <v>-8.354601457123941E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862934102610287E-10</v>
+        <v>-1.862972205841317E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207900967951644E-09</v>
+        <v>-1.207905295580687E-09</v>
       </c>
       <c r="V3">
-        <v>2.76432299664729E-10</v>
+        <v>2.764228293964935E-10</v>
       </c>
       <c r="W3">
-        <v>1.862934102644321E-10</v>
+        <v>1.86299216002815E-10</v>
       </c>
       <c r="X3">
-        <v>1.207905342906634E-09</v>
+        <v>1.207908450433624E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409052E-10</v>
+        <v>-2.764221562551749E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308784</v>
+        <v>0.7679592756308865</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719262</v>
+        <v>0.5655462792719437</v>
       </c>
       <c r="AI3">
-        <v>0.379258915749501</v>
+        <v>0.3792589157494597</v>
       </c>
       <c r="AJ3">
-        <v>0.767959275625641</v>
+        <v>0.7679592756256494</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745879</v>
+        <v>0.5655462792746054</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297808</v>
+        <v>0.3792589157297394</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956479</v>
+        <v>-3.793471523960253</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016068</v>
+        <v>-155.626632001602</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156434</v>
+        <v>131.465684015648</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370235</v>
+        <v>-3.793471524374021</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036335</v>
+        <v>-155.6266320036287</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149953</v>
+        <v>131.4656840149999</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472167583518617E-10</v>
+        <v>6.472189993601875E-10</v>
       </c>
       <c r="O4">
-        <v>5.127810521153077E-10</v>
+        <v>5.127818140425539E-10</v>
       </c>
       <c r="P4">
-        <v>8.354631514698747E-10</v>
+        <v>8.354583613355293E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472167583461026E-10</v>
+        <v>-6.472217217160965E-10</v>
       </c>
       <c r="R4">
-        <v>-5.12782309509415E-10</v>
+        <v>-5.127854170365301E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354604589595814E-10</v>
+        <v>-8.354583612952155E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862895397688034E-10</v>
+        <v>-1.862969799074637E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207900967951644E-09</v>
+        <v>-1.207912387105539E-09</v>
       </c>
       <c r="V4">
-        <v>2.764296071947507E-10</v>
+        <v>2.764241756314833E-10</v>
       </c>
       <c r="W4">
-        <v>1.862895397722066E-10</v>
+        <v>1.862971604183681E-10</v>
       </c>
       <c r="X4">
-        <v>1.207915103723053E-09</v>
+        <v>1.207912225283513E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764272279480217E-10</v>
+        <v>-2.764241756076589E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308784</v>
+        <v>0.7679592756308864</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719265</v>
+        <v>0.565546279271944</v>
       </c>
       <c r="AI4">
-        <v>0.379258915749501</v>
+        <v>0.3792589157494594</v>
       </c>
       <c r="AJ4">
-        <v>0.767959275625641</v>
+        <v>0.7679592756256494</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745879</v>
+        <v>0.5655462792746054</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297808</v>
+        <v>0.3792589157297394</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956493</v>
+        <v>-3.793471523960281</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016068</v>
+        <v>-155.6266320016019</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156435</v>
+        <v>131.4656840156481</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370235</v>
+        <v>-3.793471524374021</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036335</v>
+        <v>-155.6266320036287</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149953</v>
+        <v>131.4656840149999</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.16851747335071E-14</v>
+        <v>2.084258736675349E-14</v>
       </c>
       <c r="O2">
-        <v>1.823722007952057E-14</v>
+        <v>2.605318801350703E-14</v>
       </c>
       <c r="P2">
-        <v>-2.084263190636111E-14</v>
+        <v>-5.210651062130489E-14</v>
       </c>
       <c r="Q2">
-        <v>3.126388105013032E-14</v>
+        <v>-2.60532342084431E-14</v>
       </c>
       <c r="R2">
-        <v>-5.210174731488612E-15</v>
+        <v>-7.815495821209024E-15</v>
       </c>
       <c r="S2">
-        <v>1.042176646282785E-14</v>
+        <v>3.647499833209269E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688885E-15</v>
+        <v>-5.210646841692621E-15</v>
       </c>
       <c r="U2">
-        <v>5.763387045926293E-09</v>
+        <v>5.763400072542888E-09</v>
       </c>
       <c r="V2">
-        <v>-5.76336620750188E-09</v>
+        <v>-5.763376628795075E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688765E-15</v>
+        <v>5.009586257546098E-27</v>
       </c>
       <c r="X2">
-        <v>-5.763381834793552E-09</v>
+        <v>-5.763392256086735E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763371418634612E-09</v>
+        <v>5.763376629280974E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808771</v>
+        <v>1.100000023808819</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057415</v>
+        <v>0.5500000117056935</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030129</v>
+        <v>0.550000012102966</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AJ2">
-        <v>0.550000011659372</v>
+        <v>0.5500000116593246</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493814</v>
+        <v>0.5500000121493357</v>
       </c>
       <c r="AL2">
-        <v>6.741500448286912E-13</v>
+        <v>-1.099066227208609E-11</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995335</v>
       </c>
       <c r="AN2">
-        <v>179.99999999955</v>
+        <v>179.9999999995733</v>
       </c>
       <c r="AO2">
-        <v>6.726196540544584E-13</v>
+        <v>-1.101698727181823E-11</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952993</v>
+        <v>-179.9999999952762</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952927</v>
+        <v>179.9999999953161</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.04212936833768E-14</v>
+        <v>5.210646841688619E-15</v>
       </c>
       <c r="O3">
-        <v>-1.302641214596672E-14</v>
+        <v>5.21085256928688E-15</v>
       </c>
       <c r="P3">
-        <v>-1.042108851324361E-14</v>
+        <v>2.043905555395302E-19</v>
       </c>
       <c r="Q3">
-        <v>6.117001122667862E-29</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.563178314738587E-14</v>
+        <v>2.605165272592511E-15</v>
       </c>
       <c r="S3">
-        <v>-1.575916029743261E-19</v>
+        <v>-5.210803652302393E-15</v>
       </c>
       <c r="T3">
-        <v>-1.220959485239071E-28</v>
+        <v>-1.002396727065819E-27</v>
       </c>
       <c r="U3">
-        <v>-1.92112901509281E-09</v>
+        <v>-1.921136831062902E-09</v>
       </c>
       <c r="V3">
-        <v>1.921129016912371E-09</v>
+        <v>1.921129016912211E-09</v>
       </c>
       <c r="W3">
-        <v>-5.210646841688398E-15</v>
+        <v>-0</v>
       </c>
       <c r="X3">
-        <v>1.921144647087316E-09</v>
+        <v>1.92114464708715E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921123806211538E-09</v>
+        <v>-1.921129016858221E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439155</v>
+        <v>0.5500000116438684</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648378</v>
+        <v>0.5500000121647923</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AJ3">
-        <v>0.550000011659372</v>
+        <v>0.5500000116593246</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493814</v>
+        <v>0.5500000121493357</v>
       </c>
       <c r="AL3">
-        <v>6.712777471404469E-13</v>
+        <v>-1.102225953965895E-11</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938802</v>
+        <v>-179.999999993857</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938736</v>
+        <v>179.9999999938969</v>
       </c>
       <c r="AO3">
-        <v>6.726196540544584E-13</v>
+        <v>-1.101698727181823E-11</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952993</v>
+        <v>-179.9999999952762</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952927</v>
+        <v>179.9999999953161</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841688398E-15</v>
+        <v>-1.042129368337724E-14</v>
       </c>
       <c r="O4">
-        <v>-1.30264121474663E-14</v>
+        <v>-5.210441111045268E-15</v>
       </c>
       <c r="P4">
-        <v>1.042149886187919E-14</v>
+        <v>1.042149807775774E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688459E-15</v>
+        <v>1.042129368337624E-14</v>
       </c>
       <c r="R4">
-        <v>2.605307682697385E-14</v>
+        <v>1.302645895304168E-14</v>
       </c>
       <c r="S4">
-        <v>-1.04214512796219E-14</v>
+        <v>-2.60533910274879E-14</v>
       </c>
       <c r="T4">
-        <v>-6.12688789536558E-29</v>
+        <v>2.004653525271679E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921118593799132E-09</v>
+        <v>-1.921126409769225E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618681E-09</v>
+        <v>1.921118595618522E-09</v>
       </c>
       <c r="W4">
-        <v>5.210646841688337E-15</v>
+        <v>-5.210646841690623E-15</v>
       </c>
       <c r="X4">
-        <v>1.921134225793639E-09</v>
+        <v>1.921123804499793E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921123806211537E-09</v>
+        <v>-1.921118595564531E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439157</v>
+        <v>0.5500000116438684</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648378</v>
+        <v>0.5500000121647923</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808771</v>
+        <v>1.100000023808818</v>
       </c>
       <c r="AJ4">
-        <v>0.550000011659372</v>
+        <v>0.5500000116593246</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493814</v>
+        <v>0.5500000121493357</v>
       </c>
       <c r="AL4">
-        <v>6.737067942230307E-13</v>
+        <v>-1.102149021740864E-11</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938802</v>
+        <v>-179.999999993857</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938736</v>
+        <v>179.9999999938969</v>
       </c>
       <c r="AO4">
-        <v>6.726196540544584E-13</v>
+        <v>-1.101698727181823E-11</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952993</v>
+        <v>-179.9999999952762</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952927</v>
+        <v>179.9999999953161</v>
       </c>
     </row>
   </sheetData>
